--- a/auto/data/3_主要國家工業生產增加率.xlsx
+++ b/auto/data/3_主要國家工業生產增加率.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K165"/>
+  <dimension ref="A1:K166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,10 +491,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>201101</t>
-        </is>
+      <c r="A2" t="n">
+        <v>201101</v>
       </c>
       <c r="B2" t="n">
         <v>15.05</v>
@@ -512,7 +510,7 @@
         <v>7.9</v>
       </c>
       <c r="G2" t="n">
-        <v>-4</v>
+        <v>-4.4</v>
       </c>
       <c r="H2" t="n">
         <v>11.9</v>
@@ -524,10 +522,8 @@
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>201102</t>
-        </is>
+      <c r="A3" t="n">
+        <v>201102</v>
       </c>
       <c r="B3" t="n">
         <v>10.66</v>
@@ -545,7 +541,7 @@
         <v>7.2</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.6</v>
+        <v>-7.9</v>
       </c>
       <c r="H3" t="n">
         <v>6.9</v>
@@ -559,10 +555,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>201103</t>
-        </is>
+      <c r="A4" t="n">
+        <v>201103</v>
       </c>
       <c r="B4" t="n">
         <v>10.64</v>
@@ -580,7 +574,7 @@
         <v>4.1</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.8</v>
+        <v>-8</v>
       </c>
       <c r="H4" t="n">
         <v>8.800000000000001</v>
@@ -596,10 +590,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>201104</t>
-        </is>
+      <c r="A5" t="n">
+        <v>201104</v>
       </c>
       <c r="B5" t="n">
         <v>4.73</v>
@@ -631,10 +623,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>201105</t>
-        </is>
+      <c r="A6" t="n">
+        <v>201105</v>
       </c>
       <c r="B6" t="n">
         <v>5.62</v>
@@ -666,10 +656,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>201106</t>
-        </is>
+      <c r="A7" t="n">
+        <v>201106</v>
       </c>
       <c r="B7" t="n">
         <v>1.85</v>
@@ -687,7 +675,7 @@
         <v>-3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="H7" t="n">
         <v>6</v>
@@ -703,10 +691,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>201107</t>
-        </is>
+      <c r="A8" t="n">
+        <v>201107</v>
       </c>
       <c r="B8" t="n">
         <v>0.5600000000000001</v>
@@ -724,7 +710,7 @@
         <v>-0.4</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.7</v>
+        <v>-5.8</v>
       </c>
       <c r="H8" t="n">
         <v>3.7</v>
@@ -738,10 +724,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>201108</t>
-        </is>
+      <c r="A9" t="n">
+        <v>201108</v>
       </c>
       <c r="B9" t="n">
         <v>0.95</v>
@@ -759,7 +743,7 @@
         <v>4.9</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="H9" t="n">
         <v>5.3</v>
@@ -773,10 +757,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>201109</t>
-        </is>
+      <c r="A10" t="n">
+        <v>201109</v>
       </c>
       <c r="B10" t="n">
         <v>-1.34</v>
@@ -810,10 +792,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>201110</t>
-        </is>
+      <c r="A11" t="n">
+        <v>201110</v>
       </c>
       <c r="B11" t="n">
         <v>0.53</v>
@@ -845,10 +825,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>201111</t>
-        </is>
+      <c r="A12" t="n">
+        <v>201111</v>
       </c>
       <c r="B12" t="n">
         <v>-6.62</v>
@@ -880,10 +858,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>201112</t>
-        </is>
+      <c r="A13" t="n">
+        <v>201112</v>
       </c>
       <c r="B13" t="n">
         <v>-10.12</v>
@@ -901,7 +877,7 @@
         <v>-3.8</v>
       </c>
       <c r="G13" t="n">
-        <v>-4</v>
+        <v>-4.1</v>
       </c>
       <c r="H13" t="n">
         <v>2.3</v>
@@ -917,10 +893,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>201201</t>
-        </is>
+      <c r="A14" t="n">
+        <v>201201</v>
       </c>
       <c r="B14" t="n">
         <v>-16.03</v>
@@ -938,7 +912,7 @@
         <v>-0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="H14" t="n">
         <v>-3.1</v>
@@ -950,10 +924,8 @@
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>201202</t>
-        </is>
+      <c r="A15" t="n">
+        <v>201202</v>
       </c>
       <c r="B15" t="n">
         <v>6.75</v>
@@ -971,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H15" t="n">
         <v>15.3</v>
@@ -985,10 +957,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>201203</t>
-        </is>
+      <c r="A16" t="n">
+        <v>201203</v>
       </c>
       <c r="B16" t="n">
         <v>-1.94</v>
@@ -1006,7 +976,7 @@
         <v>-4.3</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.6</v>
+        <v>-1.8</v>
       </c>
       <c r="H16" t="n">
         <v>0.9</v>
@@ -1022,10 +992,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>201204</t>
-        </is>
+      <c r="A17" t="n">
+        <v>201204</v>
       </c>
       <c r="B17" t="n">
         <v>-0.58</v>
@@ -1043,7 +1011,7 @@
         <v>-0.1</v>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1057,10 +1025,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>201205</t>
-        </is>
+      <c r="A18" t="n">
+        <v>201205</v>
       </c>
       <c r="B18" t="n">
         <v>-0.1</v>
@@ -1092,10 +1058,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>201206</t>
-        </is>
+      <c r="A19" t="n">
+        <v>201206</v>
       </c>
       <c r="B19" t="n">
         <v>-3.07</v>
@@ -1113,7 +1077,7 @@
         <v>-0.8</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="H19" t="n">
         <v>0.7</v>
@@ -1129,10 +1093,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>201207</t>
-        </is>
+      <c r="A20" t="n">
+        <v>201207</v>
       </c>
       <c r="B20" t="n">
         <v>0.86</v>
@@ -1164,10 +1126,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>201208</t>
-        </is>
+      <c r="A21" t="n">
+        <v>201208</v>
       </c>
       <c r="B21" t="n">
         <v>3.9</v>
@@ -1185,7 +1145,7 @@
         <v>-0.7</v>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
         <v>-1.3</v>
@@ -1199,10 +1159,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>201209</t>
-        </is>
+      <c r="A22" t="n">
+        <v>201209</v>
       </c>
       <c r="B22" t="n">
         <v>6.22</v>
@@ -1236,10 +1194,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>201210</t>
-        </is>
+      <c r="A23" t="n">
+        <v>201210</v>
       </c>
       <c r="B23" t="n">
         <v>5.56</v>
@@ -1271,10 +1227,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>201211</t>
-        </is>
+      <c r="A24" t="n">
+        <v>201211</v>
       </c>
       <c r="B24" t="n">
         <v>7.45</v>
@@ -1292,7 +1246,7 @@
         <v>-2</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
@@ -1306,10 +1260,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>201212</t>
-        </is>
+      <c r="A25" t="n">
+        <v>201212</v>
       </c>
       <c r="B25" t="n">
         <v>4.99</v>
@@ -1327,7 +1279,7 @@
         <v>-7.1</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="H25" t="n">
         <v>0.1</v>
@@ -1343,10 +1295,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>201301</t>
-        </is>
+      <c r="A26" t="n">
+        <v>201301</v>
       </c>
       <c r="B26" t="n">
         <v>21.22</v>
@@ -1364,7 +1314,7 @@
         <v>-1.7</v>
       </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
         <v>9</v>
@@ -1376,10 +1326,8 @@
       <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>201302</t>
-        </is>
+      <c r="A27" t="n">
+        <v>201302</v>
       </c>
       <c r="B27" t="n">
         <v>-8.18</v>
@@ -1397,7 +1345,7 @@
         <v>-4</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="H27" t="n">
         <v>-8.300000000000001</v>
@@ -1411,10 +1359,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>201303</t>
-        </is>
+      <c r="A28" t="n">
+        <v>201303</v>
       </c>
       <c r="B28" t="n">
         <v>0.31</v>
@@ -1432,7 +1378,7 @@
         <v>-2.7</v>
       </c>
       <c r="G28" t="n">
-        <v>-1</v>
+        <v>-0.7</v>
       </c>
       <c r="H28" t="n">
         <v>-1.8</v>
@@ -1448,10 +1394,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>201304</t>
-        </is>
+      <c r="A29" t="n">
+        <v>201304</v>
       </c>
       <c r="B29" t="n">
         <v>1.76</v>
@@ -1469,7 +1413,7 @@
         <v>3.6</v>
       </c>
       <c r="G29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H29" t="n">
         <v>2.5</v>
@@ -1483,10 +1427,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>201305</t>
-        </is>
+      <c r="A30" t="n">
+        <v>201305</v>
       </c>
       <c r="B30" t="n">
         <v>3.3</v>
@@ -1504,7 +1446,7 @@
         <v>1.5</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H30" t="n">
         <v>-0.1</v>
@@ -1518,10 +1460,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>201306</t>
-        </is>
+      <c r="A31" t="n">
+        <v>201306</v>
       </c>
       <c r="B31" t="n">
         <v>5.68</v>
@@ -1539,7 +1479,7 @@
         <v>-1.7</v>
       </c>
       <c r="G31" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>-1.3</v>
@@ -1555,10 +1495,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>201307</t>
-        </is>
+      <c r="A32" t="n">
+        <v>201307</v>
       </c>
       <c r="B32" t="n">
         <v>5.86</v>
@@ -1590,10 +1528,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>201308</t>
-        </is>
+      <c r="A33" t="n">
+        <v>201308</v>
       </c>
       <c r="B33" t="n">
         <v>2.77</v>
@@ -1611,7 +1547,7 @@
         <v>-5.4</v>
       </c>
       <c r="G33" t="n">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="H33" t="n">
         <v>3.6</v>
@@ -1625,10 +1561,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>201309</t>
-        </is>
+      <c r="A34" t="n">
+        <v>201309</v>
       </c>
       <c r="B34" t="n">
         <v>2.62</v>
@@ -1646,7 +1580,7 @@
         <v>1.9</v>
       </c>
       <c r="G34" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="H34" t="n">
         <v>-3.4</v>
@@ -1662,10 +1596,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>201310</t>
-        </is>
+      <c r="A35" t="n">
+        <v>201310</v>
       </c>
       <c r="B35" t="n">
         <v>2.7</v>
@@ -1683,7 +1615,7 @@
         <v>1.2</v>
       </c>
       <c r="G35" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H35" t="n">
         <v>4.1</v>
@@ -1697,10 +1629,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>201311</t>
-        </is>
+      <c r="A36" t="n">
+        <v>201311</v>
       </c>
       <c r="B36" t="n">
         <v>1.99</v>
@@ -1718,7 +1648,7 @@
         <v>-2.1</v>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>-0.4</v>
@@ -1732,10 +1662,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>201312</t>
-        </is>
+      <c r="A37" t="n">
+        <v>201312</v>
       </c>
       <c r="B37" t="n">
         <v>9.029999999999999</v>
@@ -1753,7 +1681,7 @@
         <v>3.8</v>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H37" t="n">
         <v>2.8</v>
@@ -1769,10 +1697,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>201401</t>
-        </is>
+      <c r="A38" t="n">
+        <v>201401</v>
       </c>
       <c r="B38" t="n">
         <v>-0.28</v>
@@ -1790,7 +1716,7 @@
         <v>-0.5</v>
       </c>
       <c r="G38" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>-4.2</v>
@@ -1802,10 +1728,8 @@
       <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>201402</t>
-        </is>
+      <c r="A39" t="n">
+        <v>201402</v>
       </c>
       <c r="B39" t="n">
         <v>9.35</v>
@@ -1823,7 +1747,7 @@
         <v>-0.4</v>
       </c>
       <c r="G39" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H39" t="n">
         <v>4</v>
@@ -1837,10 +1761,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>201403</t>
-        </is>
+      <c r="A40" t="n">
+        <v>201403</v>
       </c>
       <c r="B40" t="n">
         <v>4.81</v>
@@ -1874,10 +1796,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>201404</t>
-        </is>
+      <c r="A41" t="n">
+        <v>201404</v>
       </c>
       <c r="B41" t="n">
         <v>6.81</v>
@@ -1895,7 +1815,7 @@
         <v>-2</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>2.6</v>
@@ -1909,10 +1829,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>201405</t>
-        </is>
+      <c r="A42" t="n">
+        <v>201405</v>
       </c>
       <c r="B42" t="n">
         <v>5.32</v>
@@ -1930,7 +1848,7 @@
         <v>-4.3</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="H42" t="n">
         <v>-1.9</v>
@@ -1944,10 +1862,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>201406</t>
-        </is>
+      <c r="A43" t="n">
+        <v>201406</v>
       </c>
       <c r="B43" t="n">
         <v>8.380000000000001</v>
@@ -1965,7 +1881,7 @@
         <v>-1.1</v>
       </c>
       <c r="G43" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H43" t="n">
         <v>0.7</v>
@@ -1981,10 +1897,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>201407</t>
-        </is>
+      <c r="A44" t="n">
+        <v>201407</v>
       </c>
       <c r="B44" t="n">
         <v>6.76</v>
@@ -2002,7 +1916,7 @@
         <v>-2.1</v>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>4.2</v>
@@ -2016,10 +1930,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>201408</t>
-        </is>
+      <c r="A45" t="n">
+        <v>201408</v>
       </c>
       <c r="B45" t="n">
         <v>8.289999999999999</v>
@@ -2037,7 +1949,7 @@
         <v>-3</v>
       </c>
       <c r="G45" t="n">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="H45" t="n">
         <v>-2.6</v>
@@ -2051,10 +1963,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>201409</t>
-        </is>
+      <c r="A46" t="n">
+        <v>201409</v>
       </c>
       <c r="B46" t="n">
         <v>11.29</v>
@@ -2072,7 +1982,7 @@
         <v>2.7</v>
       </c>
       <c r="G46" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H46" t="n">
         <v>2.1</v>
@@ -2088,10 +1998,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>201410</t>
-        </is>
+      <c r="A47" t="n">
+        <v>201410</v>
       </c>
       <c r="B47" t="n">
         <v>11.02</v>
@@ -2109,7 +2017,7 @@
         <v>-1.7</v>
       </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>-2.8</v>
@@ -2123,10 +2031,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>201411</t>
-        </is>
+      <c r="A48" t="n">
+        <v>201411</v>
       </c>
       <c r="B48" t="n">
         <v>9.43</v>
@@ -2158,10 +2064,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>201412</t>
-        </is>
+      <c r="A49" t="n">
+        <v>201412</v>
       </c>
       <c r="B49" t="n">
         <v>9</v>
@@ -2195,10 +2099,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>201501</t>
-        </is>
+      <c r="A50" t="n">
+        <v>201501</v>
       </c>
       <c r="B50" t="n">
         <v>11.05</v>
@@ -2216,7 +2118,7 @@
         <v>-0.8</v>
       </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>1.3</v>
@@ -2228,10 +2130,8 @@
       <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>201502</t>
-        </is>
+      <c r="A51" t="n">
+        <v>201502</v>
       </c>
       <c r="B51" t="n">
         <v>3.64</v>
@@ -2249,7 +2149,7 @@
         <v>0.7</v>
       </c>
       <c r="G51" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H51" t="n">
         <v>-5.1</v>
@@ -2263,10 +2163,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>201503</t>
-        </is>
+      <c r="A52" t="n">
+        <v>201503</v>
       </c>
       <c r="B52" t="n">
         <v>7.87</v>
@@ -2284,7 +2182,7 @@
         <v>3.8</v>
       </c>
       <c r="G52" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H52" t="n">
         <v>-1.2</v>
@@ -2300,10 +2198,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>201504</t>
-        </is>
+      <c r="A53" t="n">
+        <v>201504</v>
       </c>
       <c r="B53" t="n">
         <v>2.48</v>
@@ -2321,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H53" t="n">
         <v>-2.4</v>
@@ -2335,10 +2231,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>201505</t>
-        </is>
+      <c r="A54" t="n">
+        <v>201505</v>
       </c>
       <c r="B54" t="n">
         <v>-0.53</v>
@@ -2356,7 +2250,7 @@
         <v>-1.7</v>
       </c>
       <c r="G54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H54" t="n">
         <v>-3.1</v>
@@ -2370,10 +2264,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>201506</t>
-        </is>
+      <c r="A55" t="n">
+        <v>201506</v>
       </c>
       <c r="B55" t="n">
         <v>-0.04</v>
@@ -2391,7 +2283,7 @@
         <v>6.3</v>
       </c>
       <c r="G55" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -2407,10 +2299,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>201507</t>
-        </is>
+      <c r="A56" t="n">
+        <v>201507</v>
       </c>
       <c r="B56" t="n">
         <v>-2.96</v>
@@ -2428,7 +2318,7 @@
         <v>-1.6</v>
       </c>
       <c r="G56" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H56" t="n">
         <v>-3.5</v>
@@ -2442,10 +2332,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>201508</t>
-        </is>
+      <c r="A57" t="n">
+        <v>201508</v>
       </c>
       <c r="B57" t="n">
         <v>-6.4</v>
@@ -2463,7 +2351,7 @@
         <v>5.5</v>
       </c>
       <c r="G57" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="H57" t="n">
         <v>1.2</v>
@@ -2477,10 +2365,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>201509</t>
-        </is>
+      <c r="A58" t="n">
+        <v>201509</v>
       </c>
       <c r="B58" t="n">
         <v>-5.64</v>
@@ -2498,7 +2384,7 @@
         <v>1.9</v>
       </c>
       <c r="G58" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H58" t="n">
         <v>4.6</v>
@@ -2514,10 +2400,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>201510</t>
-        </is>
+      <c r="A59" t="n">
+        <v>201510</v>
       </c>
       <c r="B59" t="n">
         <v>-6.53</v>
@@ -2549,10 +2433,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>201511</t>
-        </is>
+      <c r="A60" t="n">
+        <v>201511</v>
       </c>
       <c r="B60" t="n">
         <v>-6.91</v>
@@ -2570,7 +2452,7 @@
         <v>5.7</v>
       </c>
       <c r="G60" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="H60" t="n">
         <v>2.1</v>
@@ -2584,10 +2466,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>201512</t>
-        </is>
+      <c r="A61" t="n">
+        <v>201512</v>
       </c>
       <c r="B61" t="n">
         <v>-6.45</v>
@@ -2621,10 +2501,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>201601</t>
-        </is>
+      <c r="A62" t="n">
+        <v>201601</v>
       </c>
       <c r="B62" t="n">
         <v>-7.53</v>
@@ -2642,7 +2520,7 @@
         <v>-0.5</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>-0.8</v>
@@ -2654,10 +2532,8 @@
       <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>201602</t>
-        </is>
+      <c r="A63" t="n">
+        <v>201602</v>
       </c>
       <c r="B63" t="n">
         <v>-6.46</v>
@@ -2675,7 +2551,7 @@
         <v>2.2</v>
       </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H63" t="n">
         <v>2.1</v>
@@ -2689,10 +2565,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>201603</t>
-        </is>
+      <c r="A64" t="n">
+        <v>201603</v>
       </c>
       <c r="B64" t="n">
         <v>-3.32</v>
@@ -2710,7 +2584,7 @@
         <v>0.5</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="H64" t="n">
         <v>2.3</v>
@@ -2726,10 +2600,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>201604</t>
-        </is>
+      <c r="A65" t="n">
+        <v>201604</v>
       </c>
       <c r="B65" t="n">
         <v>-4.8</v>
@@ -2747,7 +2619,7 @@
         <v>1.7</v>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>-1.7</v>
@@ -2761,10 +2633,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>201605</t>
-        </is>
+      <c r="A66" t="n">
+        <v>201605</v>
       </c>
       <c r="B66" t="n">
         <v>1.07</v>
@@ -2782,7 +2652,7 @@
         <v>7.5</v>
       </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H66" t="n">
         <v>5.4</v>
@@ -2796,10 +2666,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>201606</t>
-        </is>
+      <c r="A67" t="n">
+        <v>201606</v>
       </c>
       <c r="B67" t="n">
         <v>2.32</v>
@@ -2817,7 +2685,7 @@
         <v>-1.3</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="H67" t="n">
         <v>3.2</v>
@@ -2833,10 +2701,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>201607</t>
-        </is>
+      <c r="A68" t="n">
+        <v>201607</v>
       </c>
       <c r="B68" t="n">
         <v>1.5</v>
@@ -2854,7 +2720,7 @@
         <v>-5.4</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.6</v>
+        <v>-4.3</v>
       </c>
       <c r="H68" t="n">
         <v>2</v>
@@ -2868,10 +2734,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>201608</t>
-        </is>
+      <c r="A69" t="n">
+        <v>201608</v>
       </c>
       <c r="B69" t="n">
         <v>9.56</v>
@@ -2889,7 +2753,7 @@
         <v>3.7</v>
       </c>
       <c r="G69" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H69" t="n">
         <v>3.5</v>
@@ -2903,10 +2767,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>201609</t>
-        </is>
+      <c r="A70" t="n">
+        <v>201609</v>
       </c>
       <c r="B70" t="n">
         <v>8.67</v>
@@ -2924,7 +2786,7 @@
         <v>-1.6</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="H70" t="n">
         <v>-1.2</v>
@@ -2940,10 +2802,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>201610</t>
-        </is>
+      <c r="A71" t="n">
+        <v>201610</v>
       </c>
       <c r="B71" t="n">
         <v>7.52</v>
@@ -2961,7 +2821,7 @@
         <v>-4.2</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.8</v>
+        <v>-5.6</v>
       </c>
       <c r="H71" t="n">
         <v>-0.7</v>
@@ -2975,10 +2835,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>201611</t>
-        </is>
+      <c r="A72" t="n">
+        <v>201611</v>
       </c>
       <c r="B72" t="n">
         <v>15.56</v>
@@ -2996,7 +2854,7 @@
         <v>3.3</v>
       </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>6</v>
@@ -3010,10 +2868,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>201612</t>
-        </is>
+      <c r="A73" t="n">
+        <v>201612</v>
       </c>
       <c r="B73" t="n">
         <v>10.55</v>
@@ -3031,7 +2887,7 @@
         <v>2.1</v>
       </c>
       <c r="G73" t="n">
-        <v>-1.5</v>
+        <v>-1.2</v>
       </c>
       <c r="H73" t="n">
         <v>6</v>
@@ -3047,10 +2903,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>201701</t>
-        </is>
+      <c r="A74" t="n">
+        <v>201701</v>
       </c>
       <c r="B74" t="n">
         <v>5.64</v>
@@ -3068,7 +2922,7 @@
         <v>4.9</v>
       </c>
       <c r="G74" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>1.8</v>
@@ -3080,10 +2934,8 @@
       <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>201702</t>
-        </is>
+      <c r="A75" t="n">
+        <v>201702</v>
       </c>
       <c r="B75" t="n">
         <v>16.16</v>
@@ -3115,10 +2967,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>201703</t>
-        </is>
+      <c r="A76" t="n">
+        <v>201703</v>
       </c>
       <c r="B76" t="n">
         <v>8.33</v>
@@ -3152,10 +3002,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>201704</t>
-        </is>
+      <c r="A77" t="n">
+        <v>201704</v>
       </c>
       <c r="B77" t="n">
         <v>1.19</v>
@@ -3173,7 +3021,7 @@
         <v>-5.1</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.8</v>
+        <v>-7.4</v>
       </c>
       <c r="H77" t="n">
         <v>4.4</v>
@@ -3187,10 +3035,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>201705</t>
-        </is>
+      <c r="A78" t="n">
+        <v>201705</v>
       </c>
       <c r="B78" t="n">
         <v>3.27</v>
@@ -3208,7 +3054,7 @@
         <v>4.1</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>2.1</v>
@@ -3222,10 +3068,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>201706</t>
-        </is>
+      <c r="A79" t="n">
+        <v>201706</v>
       </c>
       <c r="B79" t="n">
         <v>5.74</v>
@@ -3243,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="H79" t="n">
         <v>0.8</v>
@@ -3259,10 +3103,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>201707</t>
-        </is>
+      <c r="A80" t="n">
+        <v>201707</v>
       </c>
       <c r="B80" t="n">
         <v>2.55</v>
@@ -3280,7 +3122,7 @@
         <v>4.2</v>
       </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>2.4</v>
@@ -3294,10 +3136,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>201708</t>
-        </is>
+      <c r="A81" t="n">
+        <v>201708</v>
       </c>
       <c r="B81" t="n">
         <v>5.78</v>
@@ -3315,7 +3155,7 @@
         <v>2.7</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>3.4</v>
@@ -3329,10 +3169,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>201709</t>
-        </is>
+      <c r="A82" t="n">
+        <v>201709</v>
       </c>
       <c r="B82" t="n">
         <v>5.33</v>
@@ -3350,7 +3188,7 @@
         <v>1.3</v>
       </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>10.8</v>
@@ -3366,10 +3204,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>201710</t>
-        </is>
+      <c r="A83" t="n">
+        <v>201710</v>
       </c>
       <c r="B83" t="n">
         <v>2.62</v>
@@ -3387,7 +3223,7 @@
         <v>7.9</v>
       </c>
       <c r="G83" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="H83" t="n">
         <v>-4.4</v>
@@ -3401,10 +3237,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>201711</t>
-        </is>
+      <c r="A84" t="n">
+        <v>201711</v>
       </c>
       <c r="B84" t="n">
         <v>1.86</v>
@@ -3422,7 +3256,7 @@
         <v>5</v>
       </c>
       <c r="G84" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H84" t="n">
         <v>0.5</v>
@@ -3436,10 +3270,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>201712</t>
-        </is>
+      <c r="A85" t="n">
+        <v>201712</v>
       </c>
       <c r="B85" t="n">
         <v>3.93</v>
@@ -3457,7 +3289,7 @@
         <v>-0.6</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="H85" t="n">
         <v>-3.6</v>
@@ -3473,10 +3305,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>201801</t>
-        </is>
+      <c r="A86" t="n">
+        <v>201801</v>
       </c>
       <c r="B86" t="n">
         <v>9.44</v>
@@ -3506,10 +3336,8 @@
       <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>201802</t>
-        </is>
+      <c r="A87" t="n">
+        <v>201802</v>
       </c>
       <c r="B87" t="n">
         <v>-5.44</v>
@@ -3541,10 +3369,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>201803</t>
-        </is>
+      <c r="A88" t="n">
+        <v>201803</v>
       </c>
       <c r="B88" t="n">
         <v>5.22</v>
@@ -3578,10 +3404,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>201804</t>
-        </is>
+      <c r="A89" t="n">
+        <v>201804</v>
       </c>
       <c r="B89" t="n">
         <v>8.15</v>
@@ -3599,7 +3423,7 @@
         <v>4.3</v>
       </c>
       <c r="G89" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="H89" t="n">
         <v>2.2</v>
@@ -3613,10 +3437,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>201805</t>
-        </is>
+      <c r="A90" t="n">
+        <v>201805</v>
       </c>
       <c r="B90" t="n">
         <v>8.01</v>
@@ -3648,10 +3470,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>201806</t>
-        </is>
+      <c r="A91" t="n">
+        <v>201806</v>
       </c>
       <c r="B91" t="n">
         <v>0.13</v>
@@ -3669,7 +3489,7 @@
         <v>1.2</v>
       </c>
       <c r="G91" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H91" t="n">
         <v>2.1</v>
@@ -3685,10 +3505,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>201807</t>
-        </is>
+      <c r="A92" t="n">
+        <v>201807</v>
       </c>
       <c r="B92" t="n">
         <v>4.75</v>
@@ -3720,10 +3538,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>201808</t>
-        </is>
+      <c r="A93" t="n">
+        <v>201808</v>
       </c>
       <c r="B93" t="n">
         <v>1.29</v>
@@ -3741,7 +3557,7 @@
         <v>0.8</v>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H93" t="n">
         <v>4.1</v>
@@ -3755,10 +3571,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>201809</t>
-        </is>
+      <c r="A94" t="n">
+        <v>201809</v>
       </c>
       <c r="B94" t="n">
         <v>1.34</v>
@@ -3792,10 +3606,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>201810</t>
-        </is>
+      <c r="A95" t="n">
+        <v>201810</v>
       </c>
       <c r="B95" t="n">
         <v>7.96</v>
@@ -3813,7 +3625,7 @@
         <v>2.5</v>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H95" t="n">
         <v>12.7</v>
@@ -3827,10 +3639,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>201811</t>
-        </is>
+      <c r="A96" t="n">
+        <v>201811</v>
       </c>
       <c r="B96" t="n">
         <v>1.89</v>
@@ -3848,7 +3658,7 @@
         <v>-1.2</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="H96" t="n">
         <v>0.3</v>
@@ -3862,10 +3672,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>201812</t>
-        </is>
+      <c r="A97" t="n">
+        <v>201812</v>
       </c>
       <c r="B97" t="n">
         <v>-1.98</v>
@@ -3883,7 +3691,7 @@
         <v>-2.5</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0.7</v>
@@ -3899,10 +3707,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>201901</t>
-        </is>
+      <c r="A98" t="n">
+        <v>201901</v>
       </c>
       <c r="B98" t="n">
         <v>0.59</v>
@@ -3920,7 +3726,7 @@
         <v>3.3</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="H98" t="n">
         <v>-0.5</v>
@@ -3932,10 +3738,8 @@
       <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>201902</t>
-        </is>
+      <c r="A99" t="n">
+        <v>201902</v>
       </c>
       <c r="B99" t="n">
         <v>-1.66</v>
@@ -3953,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="H99" t="n">
         <v>-4</v>
@@ -3967,10 +3771,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>201903</t>
-        </is>
+      <c r="A100" t="n">
+        <v>201903</v>
       </c>
       <c r="B100" t="n">
         <v>-7.56</v>
@@ -3988,7 +3790,7 @@
         <v>-2.4</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="H100" t="n">
         <v>-2</v>
@@ -4004,10 +3806,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>201904</t>
-        </is>
+      <c r="A101" t="n">
+        <v>201904</v>
       </c>
       <c r="B101" t="n">
         <v>2.26</v>
@@ -4025,7 +3825,7 @@
         <v>3.9</v>
       </c>
       <c r="G101" t="n">
-        <v>-1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0.8</v>
@@ -4039,10 +3839,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>201905</t>
-        </is>
+      <c r="A102" t="n">
+        <v>201905</v>
       </c>
       <c r="B102" t="n">
         <v>-1.89</v>
@@ -4060,7 +3858,7 @@
         <v>6.3</v>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>1.1</v>
@@ -4074,10 +3872,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>201906</t>
-        </is>
+      <c r="A103" t="n">
+        <v>201906</v>
       </c>
       <c r="B103" t="n">
         <v>-0.23</v>
@@ -4095,7 +3891,7 @@
         <v>-5.6</v>
       </c>
       <c r="G103" t="n">
-        <v>-3.6</v>
+        <v>-3.3</v>
       </c>
       <c r="H103" t="n">
         <v>-1.9</v>
@@ -4111,10 +3907,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>201907</t>
-        </is>
+      <c r="A104" t="n">
+        <v>201907</v>
       </c>
       <c r="B104" t="n">
         <v>4.87</v>
@@ -4132,7 +3926,7 @@
         <v>2.9</v>
       </c>
       <c r="G104" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H104" t="n">
         <v>2</v>
@@ -4146,10 +3940,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="inlineStr">
-        <is>
-          <t>201908</t>
-        </is>
+      <c r="A105" t="n">
+        <v>201908</v>
       </c>
       <c r="B105" t="n">
         <v>3.1</v>
@@ -4181,10 +3973,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="inlineStr">
-        <is>
-          <t>201909</t>
-        </is>
+      <c r="A106" t="n">
+        <v>201909</v>
       </c>
       <c r="B106" t="n">
         <v>0.75</v>
@@ -4218,10 +4008,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="inlineStr">
-        <is>
-          <t>201910</t>
-        </is>
+      <c r="A107" t="n">
+        <v>201910</v>
       </c>
       <c r="B107" t="n">
         <v>-0.38</v>
@@ -4239,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H107" t="n">
         <v>-0.4</v>
@@ -4253,10 +4041,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="inlineStr">
-        <is>
-          <t>201911</t>
-        </is>
+      <c r="A108" t="n">
+        <v>201911</v>
       </c>
       <c r="B108" t="n">
         <v>2.89</v>
@@ -4274,7 +4060,7 @@
         <v>-3.8</v>
       </c>
       <c r="G108" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H108" t="n">
         <v>1.6</v>
@@ -4288,10 +4074,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="inlineStr">
-        <is>
-          <t>201912</t>
-        </is>
+      <c r="A109" t="n">
+        <v>201912</v>
       </c>
       <c r="B109" t="n">
         <v>8.77</v>
@@ -4309,7 +4093,7 @@
         <v>0.5</v>
       </c>
       <c r="G109" t="n">
-        <v>11.4</v>
+        <v>10.7</v>
       </c>
       <c r="H109" t="n">
         <v>6.5</v>
@@ -4325,10 +4109,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="inlineStr">
-        <is>
-          <t>202001</t>
-        </is>
+      <c r="A110" t="n">
+        <v>202001</v>
       </c>
       <c r="B110" t="n">
         <v>-1.83</v>
@@ -4346,7 +4128,7 @@
         <v>-2.5</v>
       </c>
       <c r="G110" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="H110" t="n">
         <v>-4.5</v>
@@ -4358,10 +4140,8 @@
       <c r="K110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="inlineStr">
-        <is>
-          <t>202002</t>
-        </is>
+      <c r="A111" t="n">
+        <v>202002</v>
       </c>
       <c r="B111" t="n">
         <v>23.48</v>
@@ -4379,7 +4159,7 @@
         <v>-0.9</v>
       </c>
       <c r="G111" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="H111" t="n">
         <v>9.699999999999999</v>
@@ -4393,10 +4173,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>202003</t>
-        </is>
+      <c r="A112" t="n">
+        <v>202003</v>
       </c>
       <c r="B112" t="n">
         <v>12.95</v>
@@ -4414,7 +4192,7 @@
         <v>-15.9</v>
       </c>
       <c r="G112" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H112" t="n">
         <v>6</v>
@@ -4430,10 +4208,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>202004</t>
-        </is>
+      <c r="A113" t="n">
+        <v>202004</v>
       </c>
       <c r="B113" t="n">
         <v>5.43</v>
@@ -4451,7 +4227,7 @@
         <v>-35.1</v>
       </c>
       <c r="G113" t="n">
-        <v>-13.9</v>
+        <v>-14.7</v>
       </c>
       <c r="H113" t="n">
         <v>-5.3</v>
@@ -4465,10 +4241,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="inlineStr">
-        <is>
-          <t>202005</t>
-        </is>
+      <c r="A114" t="n">
+        <v>202005</v>
       </c>
       <c r="B114" t="n">
         <v>2.47</v>
@@ -4486,7 +4260,7 @@
         <v>-27.8</v>
       </c>
       <c r="G114" t="n">
-        <v>-13.3</v>
+        <v>-13.9</v>
       </c>
       <c r="H114" t="n">
         <v>-10.4</v>
@@ -4500,10 +4274,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="inlineStr">
-        <is>
-          <t>202006</t>
-        </is>
+      <c r="A115" t="n">
+        <v>202006</v>
       </c>
       <c r="B115" t="n">
         <v>8.380000000000001</v>
@@ -4521,7 +4293,7 @@
         <v>-7.9</v>
       </c>
       <c r="G115" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="H115" t="n">
         <v>-0.6</v>
@@ -4537,10 +4309,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="inlineStr">
-        <is>
-          <t>202007</t>
-        </is>
+      <c r="A116" t="n">
+        <v>202007</v>
       </c>
       <c r="B116" t="n">
         <v>5.1</v>
@@ -4558,7 +4328,7 @@
         <v>-11.2</v>
       </c>
       <c r="G116" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H116" t="n">
         <v>-3.3</v>
@@ -4572,10 +4342,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
-        <is>
-          <t>202008</t>
-        </is>
+      <c r="A117" t="n">
+        <v>202008</v>
       </c>
       <c r="B117" t="n">
         <v>6.08</v>
@@ -4593,7 +4361,7 @@
         <v>-7.7</v>
       </c>
       <c r="G117" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H117" t="n">
         <v>-3</v>
@@ -4607,10 +4375,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <t>202009</t>
-        </is>
+      <c r="A118" t="n">
+        <v>202009</v>
       </c>
       <c r="B118" t="n">
         <v>14.3</v>
@@ -4628,7 +4394,7 @@
         <v>-4.3</v>
       </c>
       <c r="G118" t="n">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="H118" t="n">
         <v>8.1</v>
@@ -4644,10 +4410,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="inlineStr">
-        <is>
-          <t>202010</t>
-        </is>
+      <c r="A119" t="n">
+        <v>202010</v>
       </c>
       <c r="B119" t="n">
         <v>8.25</v>
@@ -4665,7 +4429,7 @@
         <v>-7.1</v>
       </c>
       <c r="G119" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H119" t="n">
         <v>-2.7</v>
@@ -4679,10 +4443,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>202011</t>
-        </is>
+      <c r="A120" t="n">
+        <v>202011</v>
       </c>
       <c r="B120" t="n">
         <v>10.65</v>
@@ -4700,7 +4462,7 @@
         <v>-3.5</v>
       </c>
       <c r="G120" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H120" t="n">
         <v>1.1</v>
@@ -4714,10 +4476,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>202012</t>
-        </is>
+      <c r="A121" t="n">
+        <v>202012</v>
       </c>
       <c r="B121" t="n">
         <v>12.84</v>
@@ -4735,7 +4495,7 @@
         <v>-1.4</v>
       </c>
       <c r="G121" t="n">
-        <v>3.3</v>
+        <v>6.1</v>
       </c>
       <c r="H121" t="n">
         <v>3.4</v>
@@ -4751,10 +4511,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="inlineStr">
-        <is>
-          <t>202101</t>
-        </is>
+      <c r="A122" t="n">
+        <v>202101</v>
       </c>
       <c r="B122" t="n">
         <v>21.8</v>
@@ -4772,7 +4530,7 @@
         <v>-5.8</v>
       </c>
       <c r="G122" t="n">
-        <v>-8.1</v>
+        <v>-5.4</v>
       </c>
       <c r="H122" t="n">
         <v>10.1</v>
@@ -4784,10 +4542,8 @@
       <c r="K122" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="inlineStr">
-        <is>
-          <t>202102</t>
-        </is>
+      <c r="A123" t="n">
+        <v>202102</v>
       </c>
       <c r="B123" t="n">
         <v>4.09</v>
@@ -4805,7 +4561,7 @@
         <v>-7.1</v>
       </c>
       <c r="G123" t="n">
-        <v>-7</v>
+        <v>-3.5</v>
       </c>
       <c r="H123" t="n">
         <v>3.8</v>
@@ -4819,10 +4575,8 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="inlineStr">
-        <is>
-          <t>202103</t>
-        </is>
+      <c r="A124" t="n">
+        <v>202103</v>
       </c>
       <c r="B124" t="n">
         <v>17.34</v>
@@ -4840,7 +4594,7 @@
         <v>16.6</v>
       </c>
       <c r="G124" t="n">
-        <v>2.4</v>
+        <v>6.9</v>
       </c>
       <c r="H124" t="n">
         <v>6</v>
@@ -4856,10 +4610,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="inlineStr">
-        <is>
-          <t>202104</t>
-        </is>
+      <c r="A125" t="n">
+        <v>202104</v>
       </c>
       <c r="B125" t="n">
         <v>16.3</v>
@@ -4877,7 +4629,7 @@
         <v>43</v>
       </c>
       <c r="G125" t="n">
-        <v>18.9</v>
+        <v>25.2</v>
       </c>
       <c r="H125" t="n">
         <v>11.9</v>
@@ -4891,10 +4643,8 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="inlineStr">
-        <is>
-          <t>202105</t>
-        </is>
+      <c r="A126" t="n">
+        <v>202105</v>
       </c>
       <c r="B126" t="n">
         <v>20.07</v>
@@ -4912,7 +4662,7 @@
         <v>23.3</v>
       </c>
       <c r="G126" t="n">
-        <v>10.9</v>
+        <v>16.6</v>
       </c>
       <c r="H126" t="n">
         <v>14.2</v>
@@ -4926,10 +4676,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="inlineStr">
-        <is>
-          <t>202106</t>
-        </is>
+      <c r="A127" t="n">
+        <v>202106</v>
       </c>
       <c r="B127" t="n">
         <v>20.48</v>
@@ -4947,7 +4695,7 @@
         <v>9.6</v>
       </c>
       <c r="G127" t="n">
-        <v>-1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H127" t="n">
         <v>12.2</v>
@@ -4963,10 +4711,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>202107</t>
-        </is>
+      <c r="A128" t="n">
+        <v>202107</v>
       </c>
       <c r="B128" t="n">
         <v>16.76</v>
@@ -4984,7 +4730,7 @@
         <v>1.2</v>
       </c>
       <c r="G128" t="n">
-        <v>-8.6</v>
+        <v>-4.9</v>
       </c>
       <c r="H128" t="n">
         <v>10</v>
@@ -4998,10 +4744,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="inlineStr">
-        <is>
-          <t>202108</t>
-        </is>
+      <c r="A129" t="n">
+        <v>202108</v>
       </c>
       <c r="B129" t="n">
         <v>15.28</v>
@@ -5019,7 +4763,7 @@
         <v>6.8</v>
       </c>
       <c r="G129" t="n">
-        <v>-6</v>
+        <v>-2.6</v>
       </c>
       <c r="H129" t="n">
         <v>11.7</v>
@@ -5033,10 +4777,8 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="inlineStr">
-        <is>
-          <t>202109</t>
-        </is>
+      <c r="A130" t="n">
+        <v>202109</v>
       </c>
       <c r="B130" t="n">
         <v>12.44</v>
@@ -5054,7 +4796,7 @@
         <v>-0.7</v>
       </c>
       <c r="G130" t="n">
-        <v>-10</v>
+        <v>-7.5</v>
       </c>
       <c r="H130" t="n">
         <v>0.1</v>
@@ -5070,10 +4812,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="inlineStr">
-        <is>
-          <t>202110</t>
-        </is>
+      <c r="A131" t="n">
+        <v>202110</v>
       </c>
       <c r="B131" t="n">
         <v>12.67</v>
@@ -5091,7 +4831,7 @@
         <v>-3.5</v>
       </c>
       <c r="G131" t="n">
-        <v>-12.7</v>
+        <v>-10</v>
       </c>
       <c r="H131" t="n">
         <v>6.6</v>
@@ -5105,10 +4845,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <t>202111</t>
-        </is>
+      <c r="A132" t="n">
+        <v>202111</v>
       </c>
       <c r="B132" t="n">
         <v>12.28</v>
@@ -5126,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>-7.8</v>
+        <v>-6.9</v>
       </c>
       <c r="H132" t="n">
         <v>7.4</v>
@@ -5140,10 +4878,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>202112</t>
-        </is>
+      <c r="A133" t="n">
+        <v>202112</v>
       </c>
       <c r="B133" t="n">
         <v>8.5</v>
@@ -5161,7 +4897,7 @@
         <v>2.4</v>
       </c>
       <c r="G133" t="n">
-        <v>-8.6</v>
+        <v>-9.1</v>
       </c>
       <c r="H133" t="n">
         <v>9.300000000000001</v>
@@ -5177,10 +4913,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <t>202201</t>
-        </is>
+      <c r="A134" t="n">
+        <v>202201</v>
       </c>
       <c r="B134" t="n">
         <v>8.390000000000001</v>
@@ -5198,7 +4932,7 @@
         <v>1.4</v>
       </c>
       <c r="G134" t="n">
-        <v>-6.5</v>
+        <v>-8.1</v>
       </c>
       <c r="H134" t="n">
         <v>6</v>
@@ -5210,10 +4944,8 @@
       <c r="K134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <t>202202</t>
-        </is>
+      <c r="A135" t="n">
+        <v>202202</v>
       </c>
       <c r="B135" t="n">
         <v>8.960000000000001</v>
@@ -5231,7 +4963,7 @@
         <v>1.7</v>
       </c>
       <c r="G135" t="n">
-        <v>-5.5</v>
+        <v>-8.4</v>
       </c>
       <c r="H135" t="n">
         <v>7.3</v>
@@ -5245,10 +4977,8 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <t>202203</t>
-        </is>
+      <c r="A136" t="n">
+        <v>202203</v>
       </c>
       <c r="B136" t="n">
         <v>2.85</v>
@@ -5266,7 +4996,7 @@
         <v>-0.1</v>
       </c>
       <c r="G136" t="n">
-        <v>-4.4</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="H136" t="n">
         <v>5.4</v>
@@ -5282,10 +5012,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>202204</t>
-        </is>
+      <c r="A137" t="n">
+        <v>202204</v>
       </c>
       <c r="B137" t="n">
         <v>4.62</v>
@@ -5303,7 +5031,7 @@
         <v>-3.2</v>
       </c>
       <c r="G137" t="n">
-        <v>-6.3</v>
+        <v>-9.5</v>
       </c>
       <c r="H137" t="n">
         <v>5.3</v>
@@ -5317,10 +5045,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>202205</t>
-        </is>
+      <c r="A138" t="n">
+        <v>202205</v>
       </c>
       <c r="B138" t="n">
         <v>1.75</v>
@@ -5338,7 +5064,7 @@
         <v>5.2</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.4</v>
+        <v>-4.1</v>
       </c>
       <c r="H138" t="n">
         <v>8.800000000000001</v>
@@ -5352,10 +5078,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>202206</t>
-        </is>
+      <c r="A139" t="n">
+        <v>202206</v>
       </c>
       <c r="B139" t="n">
         <v>-2.26</v>
@@ -5373,7 +5097,7 @@
         <v>-1</v>
       </c>
       <c r="G139" t="n">
-        <v>-1.6</v>
+        <v>-6</v>
       </c>
       <c r="H139" t="n">
         <v>2.8</v>
@@ -5389,10 +5113,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="inlineStr">
-        <is>
-          <t>202207</t>
-        </is>
+      <c r="A140" t="n">
+        <v>202207</v>
       </c>
       <c r="B140" t="n">
         <v>-2.38</v>
@@ -5410,7 +5132,7 @@
         <v>-3.6</v>
       </c>
       <c r="G140" t="n">
-        <v>-4.1</v>
+        <v>-7.2</v>
       </c>
       <c r="H140" t="n">
         <v>0.5</v>
@@ -5424,10 +5146,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="inlineStr">
-        <is>
-          <t>202208</t>
-        </is>
+      <c r="A141" t="n">
+        <v>202208</v>
       </c>
       <c r="B141" t="n">
         <v>-2.02</v>
@@ -5445,7 +5165,7 @@
         <v>1.5</v>
       </c>
       <c r="G141" t="n">
-        <v>-1</v>
+        <v>-4.6</v>
       </c>
       <c r="H141" t="n">
         <v>-0.7</v>
@@ -5459,10 +5179,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="inlineStr">
-        <is>
-          <t>202209</t>
-        </is>
+      <c r="A142" t="n">
+        <v>202209</v>
       </c>
       <c r="B142" t="n">
         <v>-8.73</v>
@@ -5480,7 +5198,7 @@
         <v>2</v>
       </c>
       <c r="G142" t="n">
-        <v>-2.4</v>
+        <v>-5.8</v>
       </c>
       <c r="H142" t="n">
         <v>-1.6</v>
@@ -5496,10 +5214,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="inlineStr">
-        <is>
-          <t>202210</t>
-        </is>
+      <c r="A143" t="n">
+        <v>202210</v>
       </c>
       <c r="B143" t="n">
         <v>-8.1</v>
@@ -5517,7 +5233,7 @@
         <v>-3.8</v>
       </c>
       <c r="G143" t="n">
-        <v>-1.2</v>
+        <v>-4.3</v>
       </c>
       <c r="H143" t="n">
         <v>-3.2</v>
@@ -5531,10 +5247,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="inlineStr">
-        <is>
-          <t>202211</t>
-        </is>
+      <c r="A144" t="n">
+        <v>202211</v>
       </c>
       <c r="B144" t="n">
         <v>-9.18</v>
@@ -5552,7 +5266,7 @@
         <v>-0.7</v>
       </c>
       <c r="G144" t="n">
-        <v>-2.7</v>
+        <v>-4.6</v>
       </c>
       <c r="H144" t="n">
         <v>-5.5</v>
@@ -5566,10 +5280,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="inlineStr">
-        <is>
-          <t>202212</t>
-        </is>
+      <c r="A145" t="n">
+        <v>202212</v>
       </c>
       <c r="B145" t="n">
         <v>-11.52</v>
@@ -5587,7 +5299,7 @@
         <v>-1.4</v>
       </c>
       <c r="G145" t="n">
-        <v>-4.8</v>
+        <v>-5.1</v>
       </c>
       <c r="H145" t="n">
         <v>-10.7</v>
@@ -5603,10 +5315,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="inlineStr">
-        <is>
-          <t>202301</t>
-        </is>
+      <c r="A146" t="n">
+        <v>202301</v>
       </c>
       <c r="B146" t="n">
         <v>-23.42</v>
@@ -5624,7 +5334,7 @@
         <v>-0.4</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="H146" t="n">
         <v>-12.5</v>
@@ -5636,10 +5346,8 @@
       <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="inlineStr">
-        <is>
-          <t>202302</t>
-        </is>
+      <c r="A147" t="n">
+        <v>202302</v>
       </c>
       <c r="B147" t="n">
         <v>-9.630000000000001</v>
@@ -5654,10 +5362,10 @@
         <v>-1.2</v>
       </c>
       <c r="F147" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G147" t="n">
-        <v>-2.5</v>
+        <v>-1.9</v>
       </c>
       <c r="H147" t="n">
         <v>-6.4</v>
@@ -5671,10 +5379,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="inlineStr">
-        <is>
-          <t>202303</t>
-        </is>
+      <c r="A148" t="n">
+        <v>202303</v>
       </c>
       <c r="B148" t="n">
         <v>-15.59</v>
@@ -5692,7 +5398,7 @@
         <v>-0.9</v>
       </c>
       <c r="G148" t="n">
-        <v>-1</v>
+        <v>-1.3</v>
       </c>
       <c r="H148" t="n">
         <v>-5.9</v>
@@ -5708,10 +5414,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="inlineStr">
-        <is>
-          <t>202304</t>
-        </is>
+      <c r="A149" t="n">
+        <v>202304</v>
       </c>
       <c r="B149" t="n">
         <v>-22.57</v>
@@ -5726,7 +5430,7 @@
         <v>-3.3</v>
       </c>
       <c r="F149" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="G149" t="n">
         <v>-3.3</v>
@@ -5743,10 +5447,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>202305</t>
-        </is>
+      <c r="A150" t="n">
+        <v>202305</v>
       </c>
       <c r="B150" t="n">
         <v>-15.97</v>
@@ -5761,10 +5463,10 @@
         <v>-3.1</v>
       </c>
       <c r="F150" t="n">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="G150" t="n">
-        <v>0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="H150" t="n">
         <v>-5.5</v>
@@ -5778,10 +5480,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="inlineStr">
-        <is>
-          <t>202306</t>
-        </is>
+      <c r="A151" t="n">
+        <v>202306</v>
       </c>
       <c r="B151" t="n">
         <v>-17.19</v>
@@ -5796,10 +5496,10 @@
         <v>1.8</v>
       </c>
       <c r="F151" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G151" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H151" t="n">
         <v>-4.5</v>
@@ -5815,10 +5515,8 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="inlineStr">
-        <is>
-          <t>202307</t>
-        </is>
+      <c r="A152" t="n">
+        <v>202307</v>
       </c>
       <c r="B152" t="n">
         <v>-15.41</v>
@@ -5833,10 +5531,10 @@
         <v>-2.3</v>
       </c>
       <c r="F152" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="G152" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H152" t="n">
         <v>-6.7</v>
@@ -5850,10 +5548,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>202308</t>
-        </is>
+      <c r="A153" t="n">
+        <v>202308</v>
       </c>
       <c r="B153" t="n">
         <v>-10.67</v>
@@ -5871,7 +5567,7 @@
         <v>-0.4</v>
       </c>
       <c r="G153" t="n">
-        <v>0.9</v>
+        <v>-0.1</v>
       </c>
       <c r="H153" t="n">
         <v>1.3</v>
@@ -5885,10 +5581,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>202309</t>
-        </is>
+      <c r="A154" t="n">
+        <v>202309</v>
       </c>
       <c r="B154" t="n">
         <v>-6.67</v>
@@ -5903,10 +5597,10 @@
         <v>-7.4</v>
       </c>
       <c r="F154" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="G154" t="n">
-        <v>-1.2</v>
+        <v>-2.5</v>
       </c>
       <c r="H154" t="n">
         <v>4.8</v>
@@ -5922,10 +5616,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="inlineStr">
-        <is>
-          <t>202310</t>
-        </is>
+      <c r="A155" t="n">
+        <v>202310</v>
       </c>
       <c r="B155" t="n">
         <v>-2.16</v>
@@ -5940,10 +5632,10 @@
         <v>-0.5</v>
       </c>
       <c r="F155" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G155" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
         <v>2</v>
@@ -5957,10 +5649,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>202311</t>
-        </is>
+      <c r="A156" t="n">
+        <v>202311</v>
       </c>
       <c r="B156" t="n">
         <v>-1.8</v>
@@ -5975,10 +5665,10 @@
         <v>-4.4</v>
       </c>
       <c r="F156" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G156" t="n">
-        <v>-0.1</v>
+        <v>-1.5</v>
       </c>
       <c r="H156" t="n">
         <v>6.1</v>
@@ -5992,10 +5682,8 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="inlineStr">
-        <is>
-          <t>202312</t>
-        </is>
+      <c r="A157" t="n">
+        <v>202312</v>
       </c>
       <c r="B157" t="n">
         <v>-3.83</v>
@@ -6010,10 +5698,10 @@
         <v>-7.6</v>
       </c>
       <c r="F157" t="n">
-        <v>-3.9</v>
+        <v>-3.8</v>
       </c>
       <c r="G157" t="n">
-        <v>-1.5</v>
+        <v>-2.8</v>
       </c>
       <c r="H157" t="n">
         <v>6.3</v>
@@ -6029,10 +5717,8 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="inlineStr">
-        <is>
-          <t>202401</t>
-        </is>
+      <c r="A158" t="n">
+        <v>202401</v>
       </c>
       <c r="B158" t="n">
         <v>15.61</v>
@@ -6050,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H158" t="n">
         <v>12.9</v>
@@ -6062,10 +5748,8 @@
       <c r="K158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="inlineStr">
-        <is>
-          <t>202402</t>
-        </is>
+      <c r="A159" t="n">
+        <v>202402</v>
       </c>
       <c r="B159" t="n">
         <v>-1.31</v>
@@ -6083,7 +5767,7 @@
         <v>1.9</v>
       </c>
       <c r="G159" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H159" t="n">
         <v>4.6</v>
@@ -6097,10 +5781,8 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="inlineStr">
-        <is>
-          <t>202403</t>
-        </is>
+      <c r="A160" t="n">
+        <v>202403</v>
       </c>
       <c r="B160" t="n">
         <v>4.2</v>
@@ -6115,10 +5797,10 @@
         <v>-14.3</v>
       </c>
       <c r="F160" t="n">
-        <v>-4</v>
+        <v>-3.9</v>
       </c>
       <c r="G160" t="n">
-        <v>-6.6</v>
+        <v>-7.1</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
@@ -6134,16 +5816,14 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="inlineStr">
-        <is>
-          <t>202404</t>
-        </is>
+      <c r="A161" t="n">
+        <v>202404</v>
       </c>
       <c r="B161" t="n">
         <v>14.48</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="D161" t="n">
         <v>-1.8</v>
@@ -6152,16 +5832,16 @@
         <v>7.5</v>
       </c>
       <c r="F161" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="G161" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="H161" t="n">
         <v>6.4</v>
       </c>
       <c r="I161" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
@@ -6169,16 +5849,14 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>202405</t>
-        </is>
+      <c r="A162" t="n">
+        <v>202405</v>
       </c>
       <c r="B162" t="n">
         <v>15.73</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D162" t="n">
         <v>1.1</v>
@@ -6187,16 +5865,16 @@
         <v>-9.6</v>
       </c>
       <c r="F162" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="G162" t="n">
-        <v>0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="H162" t="n">
         <v>4.2</v>
       </c>
       <c r="I162" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
@@ -6204,10 +5882,8 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="inlineStr">
-        <is>
-          <t>202406</t>
-        </is>
+      <c r="A163" t="n">
+        <v>202406</v>
       </c>
       <c r="B163" t="n">
         <v>12.82</v>
@@ -6222,16 +5898,16 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="F163" t="n">
-        <v>-6.3</v>
+        <v>-6.1</v>
       </c>
       <c r="G163" t="n">
-        <v>-5.8</v>
+        <v>-6.6</v>
       </c>
       <c r="H163" t="n">
         <v>3.8</v>
       </c>
       <c r="I163" t="n">
-        <v>-4.2</v>
+        <v>-4</v>
       </c>
       <c r="J163" t="n">
         <v>0.6</v>
@@ -6241,34 +5917,32 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>202407</t>
-        </is>
+      <c r="A164" t="n">
+        <v>202407</v>
       </c>
       <c r="B164" t="n">
         <v>13.01</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="D164" t="n">
         <v>2.9</v>
       </c>
       <c r="E164" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="F164" t="n">
-        <v>5.1</v>
+        <v>6.3</v>
       </c>
       <c r="G164" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H164" t="n">
         <v>5.2</v>
       </c>
       <c r="I164" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
@@ -6276,32 +5950,63 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>202408</t>
-        </is>
+      <c r="A165" t="n">
+        <v>202408</v>
       </c>
       <c r="B165" t="n">
-        <v>13.42</v>
+        <v>12.54</v>
       </c>
       <c r="C165" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="D165" t="n">
         <v>-4.9</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
+      <c r="E165" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-2.9</v>
+      </c>
       <c r="H165" t="n">
         <v>3.8</v>
       </c>
       <c r="I165" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
         <v>4.5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>202409</v>
+      </c>
+      <c r="B166" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="I166" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>

--- a/auto/data/3_主要國家工業生產增加率.xlsx
+++ b/auto/data/3_主要國家工業生產增加率.xlsx
@@ -1,37 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10101974\新版資料庫\auto\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847E09F5-75AD-40AD-8179-8CD6F37417AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>中華民國</t>
+  </si>
+  <si>
+    <t>美國</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>德國</t>
+  </si>
+  <si>
+    <t>法國</t>
+  </si>
+  <si>
+    <t>英國</t>
+  </si>
+  <si>
+    <t>韓國</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>中國大陸</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +99,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,5596 +423,5447 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="O161" sqref="O161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>中華民國</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>美國</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>日本</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>德國</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>法國</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>英國</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>韓國</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>新加坡</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>香港</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>中國大陸</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>201101</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>15.05</v>
       </c>
-      <c r="C2" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="C2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E2">
         <v>15.1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>7.9</v>
       </c>
-      <c r="G2" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="H2">
         <v>11.9</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>25.6</v>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>201102</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>10.66</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3.7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>15.8</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>7.2</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-7.9</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>6.9</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>11</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>14.9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>201103</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>10.64</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>4.2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-13.4</v>
       </c>
-      <c r="E4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="E4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G4">
         <v>-8</v>
       </c>
-      <c r="H4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="H4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J4">
         <v>3.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>14.8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>201104</v>
       </c>
-      <c r="B5" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C5">
         <v>3.4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-13.4</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-9.5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>5.5</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>-7</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>13.4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>201105</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>5.62</v>
       </c>
-      <c r="C6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-5.1</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="C6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D6">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="E6">
         <v>17.8</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>12.8</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-3.5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>7.1</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>-14.9</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>13.3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>201106</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1.85</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>2.1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-1.5</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-3.1</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-3.5</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>13.4</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>15.1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>201107</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C8">
         <v>2.7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-2.6</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>5.8</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-0.4</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-5.8</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>3.7</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>5.4</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>14</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>201108</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0.95</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2.5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>10.3</v>
       </c>
-      <c r="F9" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G9">
         <v>-1.7</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>5.3</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>14.3</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>13.5</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>201109</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-1.34</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>2.5</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-3</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>4.5</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.3</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-2.7</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>7.1</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>7.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.3</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>13.8</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>201110</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.53</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3.3</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1.4</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-0.1</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.5</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-4.8</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>4.3</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>6.6</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>13.2</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>201111</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-6.62</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>3.6</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-2.5</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>3.8</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>1.4</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-2.6</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>3.7</v>
       </c>
-      <c r="I12" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
+      <c r="I12">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="K12">
         <v>12.4</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>201112</v>
       </c>
-      <c r="B13" t="n">
-        <v>-10.12</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13">
+        <v>-10.119999999999999</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-1.8</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>1.8</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-3.8</v>
       </c>
-      <c r="G13" t="n">
-        <v>-4.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="G13">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="H13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I13">
         <v>25.2</v>
       </c>
-      <c r="J13" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J13">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="K13">
         <v>12.8</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>201201</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-16.03</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>3.5</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.2</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>5</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-0.1</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-0.3</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>-3.1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>-10</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>201202</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>6.75</v>
       </c>
-      <c r="C15" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>2.6</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>2.6</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>15.3</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>12.2</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>11.4</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>201203</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-1.94</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>2.9</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>16.7</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>0.2</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-4.3</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-1.8</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>0.9</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>-3.4</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>-1.6</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>11.9</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>201204</v>
       </c>
-      <c r="B17" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>15.2</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>0.1</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-0.1</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>1.6</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>-1.9</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="K17">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>201205</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-0.1</v>
       </c>
-      <c r="C18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D18">
         <v>7.5</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-5.8</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-11.4</v>
       </c>
-      <c r="G18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="G18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H18">
         <v>3.3</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>6.4</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>9.6</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>201206</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-3.07</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>3.6</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-0.6</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>4.8</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-0.8</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-2.6</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>0.7</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>7.7</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>-2.9</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>9.5</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>201207</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.86</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>3.2</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.2</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>2.8</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>1.8</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>5</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K20">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>201208</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>3.9</v>
       </c>
-      <c r="C21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-4.1</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="C21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D21">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="E21">
         <v>-0.1</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-0.7</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>1.6</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>-1.3</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>-2.8</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>8.9</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>201209</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>6.22</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>2.4</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-7.7</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-6.2</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-6.8</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-5.5</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>0.3</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>-3.6</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>-0.2</v>
       </c>
-      <c r="K22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="K22">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>201210</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>5.56</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1.7</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-4.7</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>4.7</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>1.4</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>3.5</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>-0.8</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>-5</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>9.6</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>201211</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>7.45</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>2.4</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-5.5</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-2.4</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-2</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>0.1</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>3</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>2.8</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>10.1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>201212</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>4.99</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1.9</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-7.6</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-9.1</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-7.1</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-0.3</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>0.1</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>1.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>1.3</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>10.3</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>201301</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>21.22</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1.6</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-5.7</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-1.2</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-1.7</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>2.1</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>9</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>0.2</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>201302</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-8.18</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1.6</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-9</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-4.8</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-4</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-1.2</v>
       </c>
-      <c r="H27" t="n">
-        <v>-8.300000000000001</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="H27">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="I27">
         <v>-15.5</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>9.9</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>201303</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>0.31</v>
       </c>
-      <c r="C28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D28">
         <v>-5.8</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-8.4</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-2.7</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-0.7</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>-1.8</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>-3.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>0.4</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>8.9</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>201304</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1.76</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>2.1</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-1.4</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>7.3</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>3.6</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>5.2</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>2.5</v>
       </c>
-      <c r="I29" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K29">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>201305</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>3.3</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.5</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>0.1</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-4.5</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>1.5</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>0.1</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>-0.1</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>2.6</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="K30">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>201306</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>5.68</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1.7</v>
       </c>
-      <c r="D31" t="n">
-        <v>-4.6</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="E31">
         <v>-0.5</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-1.7</v>
       </c>
-      <c r="G31" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="G31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H31">
         <v>-1.3</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>-4.7</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>0.3</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>8.9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>201307</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>5.86</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1.3</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>1.4</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>1.9</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>2</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>3.1</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>1.9</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>2.9</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>9.699999999999999</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="K32">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>201308</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>2.77</v>
       </c>
-      <c r="C33" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D33">
         <v>-1.3</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-2.8</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-5.4</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-2.1</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>3.6</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>3.5</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>10.4</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>201309</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>2.62</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>2.8</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>4.8</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>4.2</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>1.9</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>7.7</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>-3.4</v>
       </c>
-      <c r="I34" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="I34">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J34">
         <v>-0.8</v>
       </c>
-      <c r="K34" t="n">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="K34">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>201310</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>2.7</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>2.5</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>5.8</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>1.5</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1.2</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>4.5</v>
       </c>
-      <c r="H35" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I35" t="n">
+      <c r="H35">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I35">
         <v>8.4</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>10.3</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>201311</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1.99</v>
       </c>
-      <c r="C36" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D36">
         <v>5.4</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>0.6</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-2.1</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>1.3</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>-0.4</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>6.8</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>10</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>201312</v>
       </c>
-      <c r="B37" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="C37" t="n">
+      <c r="B37">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="C37">
         <v>2.1</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>8</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>6.1</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>3.8</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>3.9</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>2.8</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>6.4</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>0.6</v>
       </c>
-      <c r="K37" t="n">
-        <v>9.699999999999999</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="K37">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>201401</v>
       </c>
-      <c r="B38" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="C38">
         <v>1.9</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>9.9</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>3.3</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-0.5</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>3.1</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>-4.2</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>3.5</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>201402</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>9.35</v>
       </c>
-      <c r="C39" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D39">
         <v>6.6</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>5.7</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-0.4</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>3.2</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>4</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>13.1</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>8.6</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>201403</v>
       </c>
-      <c r="B40" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="C40" t="n">
+      <c r="B40">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="C40">
         <v>3.1</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>6.8</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>4.7</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-0.9</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>3</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>3.1</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>12.2</v>
       </c>
-      <c r="J40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K40" t="n">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="J40">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K40">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>201404</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>6.81</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>2.6</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>1.9</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-1.6</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-2</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.8</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>2.6</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>5.3</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="K41">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>201405</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>5.32</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>3.3</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.5</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>4</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-4.3</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-0.2</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>-1.9</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>-1.9</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="K42">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>201406</v>
       </c>
-      <c r="B43" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="C43">
         <v>3.4</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>3.7</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-2.1</v>
       </c>
-      <c r="F43" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="F43">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G43">
         <v>3.4</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>0.7</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>0.7</v>
       </c>
-      <c r="J43" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K43" t="n">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="J43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K43">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>201407</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>6.76</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>3.5</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>3.2</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-2.1</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>2</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>4.2</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>2.6</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>9</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>201408</v>
       </c>
-      <c r="B45" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="C45">
         <v>3.2</v>
       </c>
-      <c r="D45" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="E45" t="n">
-        <v>-5.1</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="D45">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="E45">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="F45">
         <v>-3</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-0.8</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>-2.6</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>3.8</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>6.9</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>201409</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>11.29</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>2.9</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>1.5</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>4</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>2.7</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>3.5</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>2.1</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>-1.2</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>-1.7</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>8</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>201410</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>11.02</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>3</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-0.7</v>
       </c>
-      <c r="E47" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F47">
         <v>-1.7</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>1.5</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>-2.8</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>0.3</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>7.7</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>201411</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>9.43</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>3.5</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-3.5</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-1.2</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-4.2</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>-3.1</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>-1.9</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>7.2</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>201412</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>9</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>3.1</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-0.1</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>3.1</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>3.7</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>6</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>1.4</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>-1.8</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>-3.6</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>7.9</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>201501</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>11.05</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>2.6</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-2.1</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-5.6</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-0.8</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>1.3</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>1.3</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>2.1</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>201502</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>3.64</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>1.6</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-2.8</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-2.6</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>0.7</v>
       </c>
-      <c r="G51" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H51" t="n">
-        <v>-5.1</v>
-      </c>
-      <c r="I51" t="n">
+      <c r="G51">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H51">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="I51">
         <v>-3.3</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>6.8</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>201503</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>7.87</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.1</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-2.4</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>5</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>3.8</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>7.8</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>-1.2</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>-10.4</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>-1.6</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>5.6</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>201504</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>2.48</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>-0.8</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-0.2</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>0.8</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>0</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>5.5</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>-2.4</v>
       </c>
-      <c r="I53" t="n">
-        <v>-8.699999999999999</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
+      <c r="I53">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="K53">
         <v>5.9</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>201505</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-0.53</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>-1.4</v>
       </c>
-      <c r="D54" t="n">
-        <v>-5.1</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-4.6</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="D54">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="E54">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="F54">
         <v>-1.7</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>3.5</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>-3.1</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>-1.2</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>6.1</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>201506</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-0.04</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>-1.8</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>1.7</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>9</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>6.3</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>7.7</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>1</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>-2.7</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>-1.3</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>6.8</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>201507</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-2.96</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>-1.3</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-0.2</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>1.5</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-1.6</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>4</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>-3.5</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>-6.1</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>6</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>201508</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-6.4</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>-1.4</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-0.9</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>3.4</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>5.5</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>6.1</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>1.2</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>-4.7</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>6.1</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>201509</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-5.64</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>-2.8</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>-0.9</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>0.8</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>1.9</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>4.7</v>
       </c>
-      <c r="H58" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I58" t="n">
+      <c r="H58">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I58">
         <v>-6.3</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>-2.1</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>5.7</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>201510</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-6.53</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>-2.7</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>-1.3</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>0.9</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>1.5</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>3.5</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>3.2</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>-3.3</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>5.6</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>201511</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-6.91</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>-4.2</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>1.7</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>3.8</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>5.7</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>6.3</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>2.1</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>-2.8</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>6.2</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>201512</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-6.45</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>-4.7</v>
       </c>
-      <c r="D61" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F61" t="n">
+      <c r="D61">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E61">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F61">
         <v>-0.5</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>1.5</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>-1.2</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>-11.9</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>-1.4</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>5.9</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>201601</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-7.53</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>-3.3</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>-4.2</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-0.3</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-0.5</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>0.7</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>-0.8</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>1.2</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>201602</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-6.46</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>-3.4</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>-0.2</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>7</v>
       </c>
-      <c r="F63" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G63" t="n">
+      <c r="F63">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G63">
         <v>3.7</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>2.1</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>-3.4</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>5.4</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>201603</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-3.32</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>-4.2</v>
       </c>
-      <c r="D64" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E64" t="n">
+      <c r="D64">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E64">
         <v>-2</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>0.5</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-0.1</v>
       </c>
-      <c r="H64" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I64" t="n">
+      <c r="H64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I64">
         <v>0.7</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>-0.2</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>6.8</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>201604</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-4.8</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>-2.5</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>-1.9</v>
       </c>
-      <c r="E65" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F65" t="n">
+      <c r="E65">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F65">
         <v>1.7</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>1.8</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>-1.7</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>3.3</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>6</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>201605</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>1.07</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>-2.7</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>0.2</v>
       </c>
-      <c r="E66" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F66" t="n">
+      <c r="E66">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F66">
         <v>7.5</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>2.4</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>5.4</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>0.4</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>6</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>201606</v>
       </c>
-      <c r="B67" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="C67" t="n">
+      <c r="B67">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C67">
         <v>-1.8</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>-1.3</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>4.5</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-1.3</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-0.1</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>3.2</v>
       </c>
-      <c r="I67" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J67" t="n">
+      <c r="I67">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J67">
         <v>-0.4</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>6.2</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>201607</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>1.5</v>
       </c>
-      <c r="C68" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="D68" t="n">
+      <c r="C68">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="D68">
         <v>-4</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-7.3</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-5.4</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-4.3</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>2</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>-3.3</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>6</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>201608</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>9.56</v>
       </c>
-      <c r="C69" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="D69" t="n">
+      <c r="C69">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="D69">
         <v>4.5</v>
       </c>
-      <c r="E69" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F69" t="n">
+      <c r="E69">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F69">
         <v>3.7</v>
       </c>
-      <c r="G69" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H69" t="n">
+      <c r="G69">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H69">
         <v>3.5</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>6.3</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>201609</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>8.67</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>-1.6</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>1</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>2.6</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-1.6</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-0.4</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>-1.2</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>7.9</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>0</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70">
         <v>6.1</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>201610</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>7.52</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>-1.2</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>-1.3</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-5</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-4.2</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-5.6</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>-0.7</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>1.2</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>6.1</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>201611</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>15.56</v>
       </c>
-      <c r="C72" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E72" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F72" t="n">
+      <c r="C72">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="D72">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E72">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F72">
         <v>3.3</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>1.3</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>6</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>11.7</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
+      <c r="K72">
         <v>6.2</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>201612</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>10.55</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>0.7</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>2.1</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>2.7</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>2.1</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-1.2</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>6</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>22.4</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>-1</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K73">
         <v>6</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>201701</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>5.64</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>-0.3</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>2.6</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>5.9</v>
       </c>
-      <c r="F74" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="G74" t="n">
+      <c r="F74">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G74">
         <v>1.8</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>1.8</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>4</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>201702</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>16.16</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>-0.3</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>2.9</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-3.1</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-3.3</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-3.4</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>8.9</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>10.1</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
+      <c r="K75">
         <v>6.3</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>201703</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>8.33</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>1.7</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>1.7</v>
       </c>
-      <c r="E76" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F76" t="n">
+      <c r="E76">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F76">
         <v>3.2</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>0.8</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>5</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>11.2</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>0.1</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76">
         <v>7.6</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>201704</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>1.19</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>0.5</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>4</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-8</v>
       </c>
-      <c r="F77" t="n">
-        <v>-5.1</v>
-      </c>
-      <c r="G77" t="n">
+      <c r="F77">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="G77">
         <v>-7.4</v>
       </c>
-      <c r="H77" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I77" t="n">
+      <c r="H77">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I77">
         <v>6.7</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
+      <c r="K77">
         <v>6.5</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>201705</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>3.27</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>1.8</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>5.4</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>10.6</v>
       </c>
-      <c r="F78" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H78" t="n">
+      <c r="F78">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G78">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H78">
         <v>2.1</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>5</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
+      <c r="K78">
         <v>6.5</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>201706</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>5.74</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>1.4</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>4.2</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-3.9</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>1</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-0.1</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>0.8</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>13.8</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>0.4</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K79">
         <v>7.6</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>201707</v>
       </c>
-      <c r="B80" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C80" t="n">
+      <c r="B80">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C80">
         <v>1.5</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>2.6</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>3.5</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>4.2</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>0.5</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>2.4</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>23.3</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
+      <c r="K80">
         <v>6.4</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>201708</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>5.78</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>0.7</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>3.7</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>3.9</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>2.7</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>0.7</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>3.4</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>20.5</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
+      <c r="K81">
         <v>6</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>201709</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>5.33</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.8</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>1.3</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-0.3</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>1.3</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>0.7</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>10.8</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>14.6</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>0.3</v>
       </c>
-      <c r="K82" t="n">
+      <c r="K82">
         <v>6.6</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>201710</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>2.62</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>2.1</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>4</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>2.1</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>7.9</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>7.1</v>
       </c>
-      <c r="H83" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="I83" t="n">
+      <c r="H83">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="I83">
         <v>15.3</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
+      <c r="K83">
         <v>6.2</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>201711</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>1.86</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>3.1</v>
       </c>
-      <c r="D84" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E84" t="n">
+      <c r="D84">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E84">
         <v>5</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>5</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>3.6</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>0.5</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>6.1</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
+      <c r="K84">
         <v>6.1</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>201712</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>3.93</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>2.9</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>3.1</v>
       </c>
-      <c r="E85" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F85" t="n">
+      <c r="E85">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F85">
         <v>-0.6</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-0.6</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>-3.6</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>-2.4</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>0.8</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K85">
         <v>6.2</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>201801</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>9.44</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>3</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>1.3</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>7.6</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>0.8</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>6.3</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>5.4</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>18.3</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>201802</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-5.44</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>3.5</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>0.4</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>2</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>4</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>5.5</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>-5.5</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>5.2</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
+      <c r="K87">
         <v>7.2</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>201803</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>5.22</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>3.2</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>2.5</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-3.7</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>0.6</v>
       </c>
-      <c r="G88" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="I88" t="n">
+      <c r="G88">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H88">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="I88">
         <v>6.7</v>
       </c>
-      <c r="J88" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K88" t="n">
+      <c r="J88">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K88">
         <v>6</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>201804</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>8.15</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>4.3</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>1.4</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>8.5</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>4.3</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>9.5</v>
       </c>
-      <c r="H89" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I89" t="n">
+      <c r="H89">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I89">
         <v>10.9</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
+      <c r="K89">
         <v>7</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>201805</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>8.01</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>2.4</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>3</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-3.3</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-3.6</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>3.8</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>2.5</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>13</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
+      <c r="K90">
         <v>6.8</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>201806</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>0.13</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>2.7</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-2.4</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>5</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>1.2</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>3.2</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>2.1</v>
       </c>
-      <c r="I91" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J91" t="n">
+      <c r="I91">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J91">
         <v>1.6</v>
       </c>
-      <c r="K91" t="n">
+      <c r="K91">
         <v>6</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>201807</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>4.75</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>3.2</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>2.1</v>
       </c>
-      <c r="E92" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F92" t="n">
+      <c r="E92">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F92">
         <v>6.2</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>6.2</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>3.3</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>6.7</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
+      <c r="K92">
         <v>6</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>201808</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>1.29</v>
       </c>
-      <c r="C93" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D93" t="n">
+      <c r="C93">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D93">
         <v>0.1</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-0.6</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>0.8</v>
       </c>
-      <c r="G93" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I93" t="n">
+      <c r="G93">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H93">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I93">
         <v>3.3</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
+      <c r="K93">
         <v>6.1</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>201809</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>1.34</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>4.3</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-3.3</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-3.8</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-3.1</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-1.2</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>-6.5</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94">
         <v>0.5</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94">
         <v>1.2</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K94">
         <v>5.8</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>201810</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>7.96</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>2.5</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>3.5</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>7.1</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>2.5</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>3.1</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>12.7</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95">
         <v>5.2</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
+      <c r="K95">
         <v>5.9</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>201811</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>1.89</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>2.5</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>1</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-3.8</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-1.2</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-1</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>0.3</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96">
         <v>6.8</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
+      <c r="K96">
         <v>5.4</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>201812</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-1.98</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>2</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-1.9</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-6</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-2.5</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-1.3</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>0.7</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97">
         <v>1.8</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97">
         <v>1.2</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K97">
         <v>5.7</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>201901</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>0.59</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>1.5</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>0.4</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-0.9</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>3.3</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-0.8</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>-0.5</v>
       </c>
-      <c r="I98" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
+      <c r="I98">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>201902</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-1.66</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>1</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-0.5</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>2.8</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>1</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-1.4</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>-4</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99">
         <v>4</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
+      <c r="K99">
         <v>5.3</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>201903</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-7.56</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>0.6</v>
       </c>
-      <c r="D100" t="n">
-        <v>-4.1</v>
-      </c>
-      <c r="E100" t="n">
+      <c r="D100">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="E100">
         <v>-0.9</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-2.4</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>0.1</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>-2</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100">
         <v>-7.8</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100">
         <v>1.5</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K100">
         <v>8.5</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>201904</v>
       </c>
-      <c r="B101" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="C101" t="n">
+      <c r="B101">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C101">
         <v>-1.2</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-0.4</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-0.5</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>3.9</v>
       </c>
-      <c r="G101" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="H101" t="n">
+      <c r="G101">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="H101">
         <v>0.8</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101">
         <v>4.2</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
+      <c r="K101">
         <v>5.4</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>201905</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-1.89</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-0.1</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-1.8</v>
       </c>
-      <c r="E102" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F102" t="n">
+      <c r="E102">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F102">
         <v>6.3</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>0.9</v>
       </c>
-      <c r="H102" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I102" t="n">
+      <c r="H102">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I102">
         <v>-2.4</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
+      <c r="K102">
         <v>5</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>201906</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-0.23</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-0.6</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-3.1</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>-11.7</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>-5.6</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>-3.3</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>-1.9</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I103">
         <v>-3.1</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J103">
         <v>0.4</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K103">
         <v>6.3</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>201907</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>4.87</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-1.3</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>1</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>2</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>2.9</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>3.8</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104">
         <v>2</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I104">
         <v>4.7</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
+      <c r="K104">
         <v>4.8</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>201908</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>3.1</v>
       </c>
-      <c r="C105" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="D105" t="n">
+      <c r="C105">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="D105">
         <v>-5</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>-5.7</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>-3.8</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>-1.7</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>-2.1</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I105">
         <v>-7.3</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
+      <c r="K105">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>201909</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>0.75</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-1.6</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>1.8</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>1.5</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>2.9</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>4.8</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106">
         <v>2.1</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I106">
         <v>-1.4</v>
       </c>
-      <c r="J106" t="n">
+      <c r="J106">
         <v>0.5</v>
       </c>
-      <c r="K106" t="n">
+      <c r="K106">
         <v>5.8</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>201910</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-0.38</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-2.1</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-7.8</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>-2.6</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>0</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>5</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>-0.4</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I107">
         <v>3.9</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
+      <c r="K107">
         <v>4.7</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>201911</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>2.89</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-1.6</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-7.8</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>-3.9</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>-3.8</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>4.3</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>1.6</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I108">
         <v>-12.3</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
+      <c r="K108">
         <v>6.2</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>201912</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>8.77</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-1.8</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-3.7</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>-1.5</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>0.5</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>10.7</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109">
         <v>6.5</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I109">
         <v>-3.7</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109">
         <v>-0.5</v>
       </c>
-      <c r="K109" t="n">
+      <c r="K109">
         <v>6.9</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>202001</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-1.83</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-1.8</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-3.1</v>
       </c>
-      <c r="E110" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="F110" t="n">
+      <c r="E110">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="F110">
         <v>-2.5</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>8.9</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>-4.5</v>
       </c>
-      <c r="I110" t="n">
+      <c r="I110">
         <v>3.7</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>202002</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>23.48</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-0.7</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-6.1</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>-1.7</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>-0.9</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>11.4</v>
       </c>
-      <c r="H111" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="I111" t="n">
+      <c r="H111">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I111">
         <v>-0.5</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
+      <c r="K111">
         <v>-13.5</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>202003</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>12.95</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-5</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-5.2</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>-5.3</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>-15.9</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>4</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112">
         <v>6</v>
       </c>
-      <c r="I112" t="n">
+      <c r="I112">
         <v>21.5</v>
       </c>
-      <c r="J112" t="n">
-        <v>-4.6</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-1.1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
+      <c r="J112">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="K112">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>202004</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>5.43</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-17.8</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-14.9</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>-25.3</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>-35.1</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>-14.7</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113">
         <v>-5.3</v>
       </c>
-      <c r="I113" t="n">
+      <c r="I113">
         <v>12</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
+      <c r="K113">
         <v>3.9</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>202005</v>
       </c>
-      <c r="B114" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="C114" t="n">
+      <c r="B114">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C114">
         <v>-16</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-25.9</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>-24.4</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>-27.8</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>-13.9</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114">
         <v>-10.4</v>
       </c>
-      <c r="I114" t="n">
+      <c r="I114">
         <v>-7.9</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
+      <c r="K114">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>202006</v>
       </c>
-      <c r="B115" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="C115" t="n">
+      <c r="B115">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="C115">
         <v>-10.5</v>
       </c>
-      <c r="D115" t="n">
-        <v>-18.1</v>
-      </c>
-      <c r="E115" t="n">
+      <c r="D115">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="E115">
         <v>-3.2</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>-7.9</v>
       </c>
-      <c r="G115" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H115" t="n">
+      <c r="G115">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H115">
         <v>-0.6</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I115">
         <v>-6.1</v>
       </c>
-      <c r="J115" t="n">
-        <v>-5.1</v>
-      </c>
-      <c r="K115" t="n">
+      <c r="J115">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="K115">
         <v>4.8</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>202007</v>
       </c>
-      <c r="B116" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C116" t="n">
+      <c r="B116">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C116">
         <v>-6.8</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-16.2</v>
       </c>
-      <c r="E116" t="n">
-        <v>-8.800000000000001</v>
-      </c>
-      <c r="F116" t="n">
+      <c r="E116">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="F116">
         <v>-11.2</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>4.2</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116">
         <v>-3.3</v>
       </c>
-      <c r="I116" t="n">
+      <c r="I116">
         <v>-7.1</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
+      <c r="K116">
         <v>4.8</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>202008</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>6.08</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>-6.4</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-14.3</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>-11.1</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>-7.7</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>4.5</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117">
         <v>-3</v>
       </c>
-      <c r="I117" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
+      <c r="I117">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="K117">
         <v>5.6</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>202009</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>14.3</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>-7</v>
       </c>
-      <c r="D118" t="n">
-        <v>-9.699999999999999</v>
-      </c>
-      <c r="E118" t="n">
+      <c r="D118">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="E118">
         <v>-2.8</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>-4.3</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>9.1</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118">
         <v>8.1</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I118">
         <v>25.9</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118">
         <v>-7.5</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K118">
         <v>6.9</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>202010</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>8.25</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>-4.8</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-4.2</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>-1.7</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>-7.1</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>3.1</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119">
         <v>-2.7</v>
       </c>
-      <c r="I119" t="n">
+      <c r="I119">
         <v>-0.4</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
+      <c r="K119">
         <v>6.9</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>202011</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>10.65</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>-5.2</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-4.5</v>
       </c>
-      <c r="E120" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F120" t="n">
+      <c r="E120">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F120">
         <v>-3.5</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>6</v>
       </c>
-      <c r="H120" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
+      <c r="H120">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I120">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K120">
         <v>7</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>202012</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>12.84</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>-3.8</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-3.1</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>5.9</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>-1.4</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>6.1</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121">
         <v>3.4</v>
       </c>
-      <c r="I121" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="J121" t="n">
+      <c r="I121">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="J121">
         <v>-6</v>
       </c>
-      <c r="K121" t="n">
+      <c r="K121">
         <v>7.3</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>202101</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>21.8</v>
       </c>
-      <c r="C122" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="D122" t="n">
+      <c r="C122">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="D122">
         <v>-5.2</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>-10.3</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>-5.8</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122">
         <v>-5.4</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H122">
         <v>10.1</v>
       </c>
-      <c r="I122" t="n">
+      <c r="I122">
         <v>9.6</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>202102</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>4.09</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>-6</v>
       </c>
-      <c r="D123" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="E123" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="F123" t="n">
+      <c r="D123">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="E123">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="F123">
         <v>-7.1</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123">
         <v>-3.5</v>
       </c>
-      <c r="H123" t="n">
+      <c r="H123">
         <v>3.8</v>
       </c>
-      <c r="I123" t="n">
+      <c r="I123">
         <v>17</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
+      <c r="K123">
         <v>35.1</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>202103</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>17.34</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>0.8</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>3.1</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>10.7</v>
       </c>
-      <c r="F124" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="G124" t="n">
+      <c r="F124">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G124">
         <v>6.9</v>
       </c>
-      <c r="H124" t="n">
+      <c r="H124">
         <v>6</v>
       </c>
-      <c r="I124" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="J124" t="n">
+      <c r="I124">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J124">
         <v>2.6</v>
       </c>
-      <c r="K124" t="n">
+      <c r="K124">
         <v>14.1</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>202104</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>16.3</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>17.3</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>14.3</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>29.8</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>43</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>25.2</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H125">
         <v>11.9</v>
       </c>
-      <c r="I125" t="n">
+      <c r="I125">
         <v>2.8</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
+      <c r="K125">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>202105</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>20.07</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>15.5</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>19.3</v>
       </c>
-      <c r="E126" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="F126" t="n">
+      <c r="E126">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F126">
         <v>23.3</v>
       </c>
-      <c r="G126" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="H126" t="n">
+      <c r="G126">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H126">
         <v>14.2</v>
       </c>
-      <c r="I126" t="n">
+      <c r="I126">
         <v>27.3</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
+      <c r="K126">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>202106</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>20.48</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>8.4</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>21.8</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>9.1</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>9.6</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127">
         <v>3.3</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H127">
         <v>12.2</v>
       </c>
-      <c r="I127" t="n">
+      <c r="I127">
         <v>28.4</v>
       </c>
-      <c r="J127" t="n">
+      <c r="J127">
         <v>5.7</v>
       </c>
-      <c r="K127" t="n">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
+      <c r="K127">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>202107</v>
       </c>
-      <c r="B128" t="n">
-        <v>16.76</v>
-      </c>
-      <c r="C128" t="n">
+      <c r="B128">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="C128">
         <v>5.3</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>10.9</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>1.8</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>1.2</v>
       </c>
-      <c r="G128" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="H128" t="n">
+      <c r="G128">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="H128">
         <v>10</v>
       </c>
-      <c r="I128" t="n">
+      <c r="I128">
         <v>16.5</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
+      <c r="K128">
         <v>6.4</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="n">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>202108</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>15.28</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>3.7</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>8.5</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>4.2</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129">
         <v>6.8</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G129">
         <v>-2.6</v>
       </c>
-      <c r="H129" t="n">
+      <c r="H129">
         <v>11.7</v>
       </c>
-      <c r="I129" t="n">
+      <c r="I129">
         <v>11.4</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
+      <c r="K129">
         <v>5.3</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>202109</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>12.44</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>3.2</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-1.4</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>-1.2</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130">
         <v>-0.7</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G130">
         <v>-7.5</v>
       </c>
-      <c r="H130" t="n">
+      <c r="H130">
         <v>0.1</v>
       </c>
-      <c r="I130" t="n">
+      <c r="I130">
         <v>-2</v>
       </c>
-      <c r="J130" t="n">
+      <c r="J130">
         <v>7.7</v>
       </c>
-      <c r="K130" t="n">
+      <c r="K130">
         <v>3.1</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>202110</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>12.67</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>3.8</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-3.8</v>
       </c>
-      <c r="E131" t="n">
-        <v>-4.6</v>
-      </c>
-      <c r="F131" t="n">
+      <c r="E131">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="F131">
         <v>-3.5</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G131">
         <v>-10</v>
       </c>
-      <c r="H131" t="n">
+      <c r="H131">
         <v>6.6</v>
       </c>
-      <c r="I131" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
+      <c r="I131">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="K131">
         <v>3.5</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>202111</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>12.28</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>4.5</v>
       </c>
-      <c r="D132" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E132" t="n">
+      <c r="D132">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E132">
         <v>-0.5</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132">
         <v>0</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G132">
         <v>-6.9</v>
       </c>
-      <c r="H132" t="n">
+      <c r="H132">
         <v>7.4</v>
       </c>
-      <c r="I132" t="n">
+      <c r="I132">
         <v>14.2</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
+      <c r="K132">
         <v>3.8</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="n">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>202112</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>8.5</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>2.8</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>1.9</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>0.5</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133">
         <v>2.4</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G133">
         <v>-9.1</v>
       </c>
-      <c r="H133" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="I133" t="n">
+      <c r="H133">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I133">
         <v>16.7</v>
       </c>
-      <c r="J133" t="n">
+      <c r="J133">
         <v>5.7</v>
       </c>
-      <c r="K133" t="n">
+      <c r="K133">
         <v>4.3</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>202201</v>
       </c>
-      <c r="B134" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="C134" t="n">
+      <c r="B134">
+        <v>8.39</v>
+      </c>
+      <c r="C134">
         <v>2.6</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-0.7</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>4</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134">
         <v>1.4</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G134">
         <v>-8.1</v>
       </c>
-      <c r="H134" t="n">
+      <c r="H134">
         <v>6</v>
       </c>
-      <c r="I134" t="n">
+      <c r="I134">
         <v>1.2</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>202202</v>
       </c>
-      <c r="B135" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="C135" t="n">
+      <c r="B135">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="C135">
         <v>6.4</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>0</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>2.7</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135">
         <v>1.7</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G135">
         <v>-8.4</v>
       </c>
-      <c r="H135" t="n">
+      <c r="H135">
         <v>7.3</v>
       </c>
-      <c r="I135" t="n">
+      <c r="I135">
         <v>13.9</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
+      <c r="K135">
         <v>7.5</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="n">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>202203</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>2.85</v>
       </c>
-      <c r="C136" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D136" t="n">
+      <c r="C136">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D136">
         <v>-1.6</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>-4.7</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136">
         <v>-0.1</v>
       </c>
-      <c r="G136" t="n">
-        <v>-8.199999999999999</v>
-      </c>
-      <c r="H136" t="n">
+      <c r="G136">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="H136">
         <v>5.4</v>
       </c>
-      <c r="I136" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J136" t="n">
+      <c r="I136">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J136">
         <v>-1.3</v>
       </c>
-      <c r="K136" t="n">
+      <c r="K136">
         <v>5</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="n">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>202204</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>4.62</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>4</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-4.7</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>-6.8</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137">
         <v>-3.2</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G137">
         <v>-9.5</v>
       </c>
-      <c r="H137" t="n">
+      <c r="H137">
         <v>5.3</v>
       </c>
-      <c r="I137" t="n">
+      <c r="I137">
         <v>5.4</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
+      <c r="K137">
         <v>-2.9</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="n">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>202205</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>1.75</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>3.9</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-2.7</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138">
         <v>5.6</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F138">
         <v>5.2</v>
       </c>
-      <c r="G138" t="n">
-        <v>-4.1</v>
-      </c>
-      <c r="H138" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="I138" t="n">
+      <c r="G138">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="H138">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I138">
         <v>11.1</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
+      <c r="K138">
         <v>0.7</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="n">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>202206</v>
       </c>
-      <c r="B139" t="n">
-        <v>-2.26</v>
-      </c>
-      <c r="C139" t="n">
+      <c r="B139">
+        <v>-2.2599999999999998</v>
+      </c>
+      <c r="C139">
         <v>3.1</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-3</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139">
         <v>-3.1</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139">
         <v>-1</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G139">
         <v>-6</v>
       </c>
-      <c r="H139" t="n">
+      <c r="H139">
         <v>2.8</v>
       </c>
-      <c r="I139" t="n">
+      <c r="I139">
         <v>3.3</v>
       </c>
-      <c r="J139" t="n">
+      <c r="J139">
         <v>2.6</v>
       </c>
-      <c r="K139" t="n">
+      <c r="K139">
         <v>3.9</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="n">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>202207</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-2.38</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>3.2</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-1.8</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140">
         <v>-4.8</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F140">
         <v>-3.6</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G140">
         <v>-7.2</v>
       </c>
-      <c r="H140" t="n">
+      <c r="H140">
         <v>0.5</v>
       </c>
-      <c r="I140" t="n">
+      <c r="I140">
         <v>1.8</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
+      <c r="K140">
         <v>3.8</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="n">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>202208</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-2.02</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>2.9</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>5.7</v>
       </c>
-      <c r="E141" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="F141" t="n">
+      <c r="E141">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F141">
         <v>1.5</v>
       </c>
-      <c r="G141" t="n">
-        <v>-4.6</v>
-      </c>
-      <c r="H141" t="n">
+      <c r="G141">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="H141">
         <v>-0.7</v>
       </c>
-      <c r="I141" t="n">
+      <c r="I141">
         <v>1</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
+      <c r="K141">
         <v>4.2</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>202209</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-8.73</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>4.8</v>
       </c>
-      <c r="D142" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="E142" t="n">
+      <c r="D142">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E142">
         <v>3.7</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F142">
         <v>2</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G142">
         <v>-5.8</v>
       </c>
-      <c r="H142" t="n">
+      <c r="H142">
         <v>-1.6</v>
       </c>
-      <c r="I142" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J142" t="n">
+      <c r="I142">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J142">
         <v>-0.6</v>
       </c>
-      <c r="K142" t="n">
+      <c r="K142">
         <v>6.3</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="n">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>202210</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-8.1</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>3</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>3.1</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143">
         <v>-4.8</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F143">
         <v>-3.8</v>
       </c>
-      <c r="G143" t="n">
+      <c r="G143">
         <v>-4.3</v>
       </c>
-      <c r="H143" t="n">
+      <c r="H143">
         <v>-3.2</v>
       </c>
-      <c r="I143" t="n">
+      <c r="I143">
         <v>-0.6</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
+      <c r="K143">
         <v>5</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="n">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>202211</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-9.18</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>1.8</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-1.4</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144">
         <v>-0.3</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F144">
         <v>-0.7</v>
       </c>
-      <c r="G144" t="n">
-        <v>-4.6</v>
-      </c>
-      <c r="H144" t="n">
+      <c r="G144">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="H144">
         <v>-5.5</v>
       </c>
-      <c r="I144" t="n">
+      <c r="I144">
         <v>-3.7</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
+      <c r="K144">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>202212</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-11.52</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>1</v>
       </c>
-      <c r="D145" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="E145" t="n">
+      <c r="D145">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="E145">
         <v>-3.7</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145">
         <v>-1.4</v>
       </c>
-      <c r="G145" t="n">
-        <v>-5.1</v>
-      </c>
-      <c r="H145" t="n">
+      <c r="G145">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="H145">
         <v>-10.7</v>
       </c>
-      <c r="I145" t="n">
+      <c r="I145">
         <v>-3.5</v>
       </c>
-      <c r="J145" t="n">
+      <c r="J145">
         <v>-0.1</v>
       </c>
-      <c r="K145" t="n">
+      <c r="K145">
         <v>1.3</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="n">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>202301</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-23.42</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>1.2</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-3</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E146">
         <v>1.4</v>
       </c>
-      <c r="F146" t="n">
+      <c r="F146">
         <v>-0.4</v>
       </c>
-      <c r="G146" t="n">
+      <c r="G146">
         <v>-0.5</v>
       </c>
-      <c r="H146" t="n">
+      <c r="H146">
         <v>-12.5</v>
       </c>
-      <c r="I146" t="n">
+      <c r="I146">
         <v>-2.9</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>202302</v>
       </c>
-      <c r="B147" t="n">
-        <v>-9.630000000000001</v>
-      </c>
-      <c r="C147" t="n">
+      <c r="B147">
+        <v>-9.6300000000000008</v>
+      </c>
+      <c r="C147">
         <v>0.8</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-0.5</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>-1.2</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F147">
         <v>0.9</v>
       </c>
-      <c r="G147" t="n">
+      <c r="G147">
         <v>-1.9</v>
       </c>
-      <c r="H147" t="n">
+      <c r="H147">
         <v>-6.4</v>
       </c>
-      <c r="I147" t="n">
+      <c r="I147">
         <v>-9.4</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
+      <c r="K147">
         <v>2.4</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="n">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>202303</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-15.59</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>0.1</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-0.8</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148">
         <v>2.7</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F148">
         <v>-0.9</v>
       </c>
-      <c r="G148" t="n">
+      <c r="G148">
         <v>-1.3</v>
       </c>
-      <c r="H148" t="n">
+      <c r="H148">
         <v>-5.9</v>
       </c>
-      <c r="I148" t="n">
+      <c r="I148">
         <v>-4.2</v>
       </c>
-      <c r="J148" t="n">
+      <c r="J148">
         <v>3.8</v>
       </c>
-      <c r="K148" t="n">
+      <c r="K148">
         <v>3.9</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="n">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>202304</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-22.57</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>0.9</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-0.8</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149">
         <v>-3.3</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F149">
         <v>-1.6</v>
       </c>
-      <c r="G149" t="n">
+      <c r="G149">
         <v>-3.3</v>
       </c>
-      <c r="H149" t="n">
+      <c r="H149">
         <v>-8.4</v>
       </c>
-      <c r="I149" t="n">
+      <c r="I149">
         <v>-7.1</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
+      <c r="K149">
         <v>5.6</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="n">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>202305</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-15.97</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>-0.1</v>
       </c>
-      <c r="D150" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E150" t="n">
+      <c r="D150">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E150">
         <v>-3.1</v>
       </c>
-      <c r="F150" t="n">
+      <c r="F150">
         <v>-1.9</v>
       </c>
-      <c r="G150" t="n">
+      <c r="G150">
         <v>-0.6</v>
       </c>
-      <c r="H150" t="n">
+      <c r="H150">
         <v>-5.5</v>
       </c>
-      <c r="I150" t="n">
+      <c r="I150">
         <v>-10.9</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
+      <c r="K150">
         <v>3.5</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="n">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>202306</v>
       </c>
-      <c r="B151" t="n">
-        <v>-17.19</v>
-      </c>
-      <c r="C151" t="n">
+      <c r="B151">
+        <v>-17.190000000000001</v>
+      </c>
+      <c r="C151">
         <v>-0.4</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-0.1</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151">
         <v>1.8</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F151">
         <v>2.7</v>
       </c>
-      <c r="G151" t="n">
+      <c r="G151">
         <v>0.3</v>
       </c>
-      <c r="H151" t="n">
+      <c r="H151">
         <v>-4.5</v>
       </c>
-      <c r="I151" t="n">
+      <c r="I151">
         <v>-6.8</v>
       </c>
-      <c r="J151" t="n">
+      <c r="J151">
         <v>2.8</v>
       </c>
-      <c r="K151" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
+      <c r="K151">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>202307</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-15.41</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>0</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-2.6</v>
       </c>
-      <c r="E152" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="F152" t="n">
+      <c r="E152">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="F152">
         <v>1.7</v>
       </c>
-      <c r="G152" t="n">
+      <c r="G152">
         <v>0.1</v>
       </c>
-      <c r="H152" t="n">
+      <c r="H152">
         <v>-6.7</v>
       </c>
-      <c r="I152" t="n">
+      <c r="I152">
         <v>-0.5</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
+      <c r="K152">
         <v>3.7</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="n">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>202308</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-10.67</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>0.3</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-4.7</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E153">
         <v>-2.1</v>
       </c>
-      <c r="F153" t="n">
+      <c r="F153">
         <v>-0.4</v>
       </c>
-      <c r="G153" t="n">
+      <c r="G153">
         <v>-0.1</v>
       </c>
-      <c r="H153" t="n">
+      <c r="H153">
         <v>1.3</v>
       </c>
-      <c r="I153" t="n">
+      <c r="I153">
         <v>-12.9</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
+      <c r="K153">
         <v>4.5</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="n">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>202309</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-6.67</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>-0.2</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-4.5</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154">
         <v>-7.4</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F154">
         <v>-2.4</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G154">
         <v>-2.5</v>
       </c>
-      <c r="H154" t="n">
+      <c r="H154">
         <v>4.8</v>
       </c>
-      <c r="I154" t="n">
+      <c r="I154">
         <v>-1.2</v>
       </c>
-      <c r="J154" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K154" t="n">
+      <c r="J154">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K154">
         <v>4.5</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="n">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>202310</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-2.16</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>-0.9</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>0.9</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155">
         <v>-0.5</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155">
         <v>5.9</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G155">
         <v>0</v>
       </c>
-      <c r="H155" t="n">
+      <c r="H155">
         <v>2</v>
       </c>
-      <c r="I155" t="n">
+      <c r="I155">
         <v>6.8</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
+      <c r="K155">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>202311</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-1.8</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>-0.4</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-1.6</v>
       </c>
-      <c r="E156" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="F156" t="n">
+      <c r="E156">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="F156">
         <v>4</v>
       </c>
-      <c r="G156" t="n">
+      <c r="G156">
         <v>-1.5</v>
       </c>
-      <c r="H156" t="n">
+      <c r="H156">
         <v>6.1</v>
       </c>
-      <c r="I156" t="n">
+      <c r="I156">
         <v>0.1</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
+      <c r="K156">
         <v>6.6</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="n">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>202312</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-3.83</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0.6</v>
       </c>
-      <c r="D157" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="E157" t="n">
+      <c r="D157">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E157">
         <v>-7.6</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F157">
         <v>-3.8</v>
       </c>
-      <c r="G157" t="n">
+      <c r="G157">
         <v>-2.8</v>
       </c>
-      <c r="H157" t="n">
+      <c r="H157">
         <v>6.3</v>
       </c>
-      <c r="I157" t="n">
+      <c r="I157">
         <v>-1.6</v>
       </c>
-      <c r="J157" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K157" t="n">
+      <c r="J157">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K157">
         <v>6.8</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="n">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>202401</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>15.61</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>-1</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-1.5</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158">
         <v>-3.9</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158">
         <v>1</v>
       </c>
-      <c r="G158" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H158" t="n">
+      <c r="G158">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H158">
         <v>12.9</v>
       </c>
-      <c r="I158" t="n">
+      <c r="I158">
         <v>0.8</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>202402</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-1.31</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>-0.2</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-3.9</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159">
         <v>-1.9</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159">
         <v>1.9</v>
       </c>
-      <c r="G159" t="n">
+      <c r="G159">
         <v>2.1</v>
       </c>
-      <c r="H159" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I159" t="n">
+      <c r="H159">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I159">
         <v>4.7</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
+      <c r="K159">
         <v>7</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="n">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>202403</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>4.2</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>-0.6</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-6.2</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160">
         <v>-14.3</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F160">
         <v>-3.9</v>
       </c>
-      <c r="G160" t="n">
+      <c r="G160">
         <v>-7.1</v>
       </c>
-      <c r="H160" t="n">
+      <c r="H160">
         <v>1</v>
       </c>
-      <c r="I160" t="n">
+      <c r="I160">
         <v>-8.9</v>
       </c>
-      <c r="J160" t="n">
+      <c r="J160">
         <v>1.8</v>
       </c>
-      <c r="K160" t="n">
+      <c r="K160">
         <v>4.5</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="n">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161">
         <v>202404</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>14.48</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>-0.4</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-1.8</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161">
         <v>7.5</v>
       </c>
-      <c r="F161" t="n">
+      <c r="F161">
         <v>6.5</v>
       </c>
-      <c r="G161" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H161" t="n">
+      <c r="G161">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H161">
         <v>6.4</v>
       </c>
-      <c r="I161" t="n">
+      <c r="I161">
         <v>-1.2</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
+      <c r="K161">
         <v>6.7</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="n">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>202405</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>15.73</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.1</v>
       </c>
-      <c r="D162" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E162" t="n">
+      <c r="D162">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E162">
         <v>-9.6</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F162">
         <v>-3.4</v>
       </c>
-      <c r="G162" t="n">
+      <c r="G162">
         <v>-0.7</v>
       </c>
-      <c r="H162" t="n">
+      <c r="H162">
         <v>4.2</v>
       </c>
-      <c r="I162" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
+      <c r="I162">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K162">
         <v>5.6</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="n">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163">
         <v>202406</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>12.82</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.9</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-7.9</v>
       </c>
-      <c r="E163" t="n">
-        <v>-8.300000000000001</v>
-      </c>
-      <c r="F163" t="n">
+      <c r="E163">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="F163">
         <v>-6.1</v>
       </c>
-      <c r="G163" t="n">
+      <c r="G163">
         <v>-6.6</v>
       </c>
-      <c r="H163" t="n">
+      <c r="H163">
         <v>3.8</v>
       </c>
-      <c r="I163" t="n">
+      <c r="I163">
         <v>-4</v>
       </c>
-      <c r="J163" t="n">
+      <c r="J163">
         <v>0.6</v>
       </c>
-      <c r="K163" t="n">
+      <c r="K163">
         <v>5.3</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="n">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164">
         <v>202407</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>13.01</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>-0.3</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>2.9</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E164">
         <v>1.5</v>
       </c>
-      <c r="F164" t="n">
+      <c r="F164">
         <v>6.3</v>
       </c>
-      <c r="G164" t="n">
+      <c r="G164">
         <v>2.7</v>
       </c>
-      <c r="H164" t="n">
+      <c r="H164">
         <v>5.2</v>
       </c>
-      <c r="I164" t="n">
+      <c r="I164">
         <v>2.6</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
+      <c r="K164">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165">
         <v>202408</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>12.54</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>-0.1</v>
       </c>
-      <c r="D165" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="E165" t="n">
+      <c r="D165">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="E165">
         <v>-6.4</v>
       </c>
-      <c r="F165" t="n">
+      <c r="F165">
         <v>-1.6</v>
       </c>
-      <c r="G165" t="n">
+      <c r="G165">
         <v>-2.9</v>
       </c>
-      <c r="H165" t="n">
+      <c r="H165">
         <v>3.8</v>
       </c>
-      <c r="I165" t="n">
+      <c r="I165">
         <v>22</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
+      <c r="K165">
         <v>4.5</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="n">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166">
         <v>202409</v>
       </c>
-      <c r="B166" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="C166" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="D166" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="n">
+      <c r="B166">
+        <v>11.15</v>
+      </c>
+      <c r="C166">
+        <v>-0.6</v>
+      </c>
+      <c r="D166">
+        <v>-2.6</v>
+      </c>
+      <c r="E166">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="H166">
         <v>-1.3</v>
       </c>
-      <c r="I166" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
+      <c r="I166">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K166">
         <v>5.4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>